--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137DFE67-DEDF-4630-9D39-A717BE135238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501CC24C-20B2-4A99-B590-584E7EBA8488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,7 +495,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -628,7 +628,9 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -674,7 +676,9 @@
         <v>7</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
       <c r="E12" s="2">
         <v>5</v>
       </c>
@@ -853,7 +857,9 @@
       <c r="E23" s="2">
         <v>5</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -866,7 +872,9 @@
         <v>19</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>5</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501CC24C-20B2-4A99-B590-584E7EBA8488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5DAED4-D772-487A-BA70-BBD94B0DF476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,10 +492,10 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -645,7 +645,9 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -694,7 +696,9 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -757,7 +761,9 @@
         <v>12</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
       <c r="E17" s="2">
         <v>5</v>
       </c>
@@ -871,7 +877,9 @@
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
       <c r="D24" s="2">
         <v>5</v>
       </c>
@@ -933,7 +941,9 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
         <v>5</v>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5DAED4-D772-487A-BA70-BBD94B0DF476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84760A0C-0D28-4516-ABB7-A4871C6F8C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,10 +492,10 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -564,8 +564,12 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
       <c r="E5" s="2">
         <v>5</v>
       </c>
@@ -714,11 +718,15 @@
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
       <c r="E14" s="2">
         <v>5</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -842,7 +850,9 @@
         <v>17</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -897,7 +907,9 @@
         <v>20</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -944,7 +956,9 @@
       <c r="C28" s="2">
         <v>5</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
       <c r="E28" s="2">
         <v>5</v>
       </c>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\_3ПКС-220\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9119353F-2F2D-4FAA-9C4B-89C53A2B4981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF84B4A2-E184-4E03-BB34-C592E47D84B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,12 +146,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -192,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -208,6 +214,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -515,10 +524,10 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -594,10 +603,10 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
         <v>5</v>
       </c>
       <c r="E5" s="2">
@@ -633,10 +642,10 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
         <v>5</v>
       </c>
       <c r="E7" s="2">
@@ -672,7 +681,7 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="7">
         <v>5</v>
       </c>
       <c r="D9" s="2"/>
@@ -689,10 +698,10 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
         <v>5</v>
       </c>
       <c r="E10" s="2"/>
@@ -717,10 +726,10 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7">
         <v>5</v>
       </c>
       <c r="E11" s="2"/>
@@ -742,10 +751,10 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7">
         <v>5</v>
       </c>
       <c r="E12" s="2">
@@ -768,7 +777,7 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="7">
         <v>5</v>
       </c>
       <c r="D13" s="2"/>
@@ -786,7 +795,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2">
+      <c r="D14" s="7">
         <v>5</v>
       </c>
       <c r="E14" s="2">
@@ -816,7 +825,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2">
+      <c r="D15" s="7">
         <v>5</v>
       </c>
       <c r="E15" s="2"/>
@@ -833,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2">
+      <c r="D16" s="7">
         <v>5</v>
       </c>
       <c r="E16" s="2"/>
@@ -849,10 +858,10 @@
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
         <v>5</v>
       </c>
       <c r="E17" s="2">
@@ -874,7 +883,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2">
+      <c r="D18" s="7">
         <v>5</v>
       </c>
       <c r="E18" s="2"/>
@@ -908,7 +917,7 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="7">
         <v>5</v>
       </c>
       <c r="D20" s="2"/>
@@ -932,7 +941,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2">
+      <c r="D21" s="7">
         <v>5</v>
       </c>
       <c r="E21" s="2">
@@ -951,7 +960,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2">
+      <c r="D22" s="7">
         <v>5</v>
       </c>
       <c r="E22" s="2"/>
@@ -968,7 +977,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2">
+      <c r="D23" s="7">
         <v>5</v>
       </c>
       <c r="E23" s="2">
@@ -992,10 +1001,10 @@
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="2">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" s="7">
+        <v>5</v>
+      </c>
+      <c r="D24" s="7">
         <v>5</v>
       </c>
       <c r="E24" s="2"/>
@@ -1018,7 +1027,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2">
+      <c r="D25" s="7">
         <v>5</v>
       </c>
       <c r="E25" s="2"/>
@@ -1035,7 +1044,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2">
+      <c r="D26" s="7">
         <v>5</v>
       </c>
       <c r="E26" s="2"/>
@@ -1075,10 +1084,10 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="2">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="7">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7">
         <v>5</v>
       </c>
       <c r="E28" s="2">

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\3ПКС-220\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF84B4A2-E184-4E03-BB34-C592E47D84B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68A0801-2F08-4914-B369-3B60D90753F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Абдуллаев Тагир</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Лаб_12</t>
+  </si>
+  <si>
+    <t>Лаб_13</t>
   </si>
 </sst>
 </file>
@@ -212,11 +215,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -524,10 +527,10 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -538,27 +541,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -585,6 +588,9 @@
       </c>
       <c r="J3" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -603,10 +609,10 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="7">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
         <v>5</v>
       </c>
       <c r="E5" s="2">
@@ -642,10 +648,10 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="2">
@@ -681,7 +687,7 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>5</v>
       </c>
       <c r="D9" s="2"/>
@@ -698,10 +704,10 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
         <v>5</v>
       </c>
       <c r="E10" s="2"/>
@@ -718,6 +724,9 @@
       <c r="J10" s="4">
         <v>5</v>
       </c>
+      <c r="K10" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -726,10 +735,10 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
         <v>5</v>
       </c>
       <c r="E11" s="2"/>
@@ -743,6 +752,9 @@
       <c r="I11" s="2">
         <v>5</v>
       </c>
+      <c r="J11" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -751,10 +763,10 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5">
         <v>5</v>
       </c>
       <c r="E12" s="2">
@@ -777,7 +789,7 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>5</v>
       </c>
       <c r="D13" s="2"/>
@@ -794,8 +806,10 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="7">
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5">
         <v>5</v>
       </c>
       <c r="E14" s="2">
@@ -814,6 +828,9 @@
         <v>5</v>
       </c>
       <c r="J14" s="4">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4">
         <v>5</v>
       </c>
     </row>
@@ -825,7 +842,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>5</v>
       </c>
       <c r="E15" s="2"/>
@@ -842,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>5</v>
       </c>
       <c r="E16" s="2"/>
@@ -851,17 +868,17 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="7">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C17" s="5">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5">
         <v>5</v>
       </c>
       <c r="E17" s="2">
@@ -875,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -883,7 +900,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>5</v>
       </c>
       <c r="E18" s="2"/>
@@ -895,14 +912,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -910,14 +929,14 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <v>5</v>
       </c>
       <c r="D20" s="2"/>
@@ -932,8 +951,11 @@
       <c r="I20" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="J20" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -941,7 +963,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>5</v>
       </c>
       <c r="E21" s="2">
@@ -952,24 +974,30 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="7">
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5">
         <v>5</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -977,7 +1005,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>5</v>
       </c>
       <c r="E23" s="2">
@@ -994,17 +1022,17 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="7">
-        <v>5</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="C24" s="5">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5">
         <v>5</v>
       </c>
       <c r="E24" s="2"/>
@@ -1019,15 +1047,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="7">
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5">
         <v>5</v>
       </c>
       <c r="E25" s="2"/>
@@ -1036,7 +1066,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1044,7 +1074,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <v>5</v>
       </c>
       <c r="E26" s="2"/>
@@ -1061,8 +1091,11 @@
       <c r="J26" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="K26" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1077,17 +1110,17 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="7">
-        <v>5</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5">
         <v>5</v>
       </c>
       <c r="E28" s="2">
@@ -1104,7 +1137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68A0801-2F08-4914-B369-3B60D90753F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B608C05A-68E1-487E-88E2-59DAEFF571A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,10 +527,10 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -710,8 +710,12 @@
       <c r="D10" s="5">
         <v>5</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
       <c r="G10" s="2">
         <v>5</v>
       </c>
@@ -773,7 +777,9 @@
         <v>5</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
       <c r="H12" s="2">
         <v>5</v>
       </c>
@@ -903,7 +909,9 @@
       <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -922,8 +930,12 @@
       <c r="C19" s="2">
         <v>5</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -987,9 +999,13 @@
       <c r="D22" s="5">
         <v>5</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
       <c r="H22" s="2">
         <v>5</v>
       </c>
@@ -1060,9 +1076,15 @@
       <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
@@ -1077,8 +1099,12 @@
       <c r="D26" s="5">
         <v>5</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
       <c r="G26" s="2">
         <v>5</v>
       </c>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B608C05A-68E1-487E-88E2-59DAEFF571A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5591D1-3806-42CF-BC03-59BBE5F03AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Абдуллаев Тагир</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Лаб_13</t>
+  </si>
+  <si>
+    <t>Лаб_14</t>
   </si>
 </sst>
 </file>
@@ -527,10 +530,10 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -592,6 +595,9 @@
       <c r="K3" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
@@ -731,6 +737,9 @@
       <c r="K10" s="4">
         <v>5</v>
       </c>
+      <c r="L10" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -874,7 +883,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -898,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -920,7 +929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -936,12 +945,23 @@
       <c r="E19" s="2">
         <v>5</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -967,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -986,7 +1006,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1013,7 +1033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1038,7 +1058,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1063,7 +1083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1088,7 +1108,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1121,7 +1141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1136,7 +1156,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1163,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5591D1-3806-42CF-BC03-59BBE5F03AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493EBA65-9078-46DB-9828-0C2D7C051C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,7 +533,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -810,9 +810,18 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -846,6 +855,9 @@
         <v>5</v>
       </c>
       <c r="K14" s="4">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4">
         <v>5</v>
       </c>
     </row>
@@ -994,17 +1006,30 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
       <c r="D21" s="5">
         <v>5</v>
       </c>
       <c r="E21" s="2">
         <v>5</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1105,8 +1130,13 @@
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
       <c r="I25" s="2"/>
+      <c r="J25" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493EBA65-9078-46DB-9828-0C2D7C051C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BA795C-B2BE-4B07-949B-B25FFB6CA011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -223,6 +223,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -530,10 +533,10 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -885,7 +888,9 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
       <c r="D16" s="5">
         <v>5</v>
       </c>
@@ -1168,6 +1173,9 @@
         <v>5</v>
       </c>
       <c r="K26" s="4">
+        <v>5</v>
+      </c>
+      <c r="L26" s="8">
         <v>5</v>
       </c>
     </row>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BA795C-B2BE-4B07-949B-B25FFB6CA011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB67221B-6016-425A-AC27-75C3932C385E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -200,6 +200,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -221,11 +230,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -533,10 +542,10 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -547,27 +556,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -875,11 +884,22 @@
       <c r="D15" s="5">
         <v>5</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>5</v>
+      </c>
+      <c r="J15" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -894,10 +914,16 @@
       <c r="D16" s="5">
         <v>5</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="13" x14ac:dyDescent="0.25">
@@ -1175,7 +1201,7 @@
       <c r="K26" s="4">
         <v>5</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="4">
         <v>5</v>
       </c>
     </row>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB67221B-6016-425A-AC27-75C3932C385E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90B6E6A-7511-4420-9EC5-7312672C61B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,7 +545,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="I26" activeCellId="10" sqref="I10 I11 I13 I14 I15 I19 I20 I21 I22 I24 I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -633,7 +633,7 @@
       <c r="D5" s="5">
         <v>5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>5</v>
       </c>
       <c r="F5" s="2"/>
@@ -672,7 +672,7 @@
       <c r="D7" s="5">
         <v>5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>5</v>
       </c>
       <c r="F7" s="2"/>
@@ -728,19 +728,19 @@
       <c r="D10" s="5">
         <v>5</v>
       </c>
-      <c r="E10" s="2">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5</v>
+      </c>
+      <c r="H10" s="5">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5">
         <v>5</v>
       </c>
       <c r="J10" s="4">
@@ -768,13 +768,13 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="G11" s="5">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5">
+        <v>5</v>
+      </c>
+      <c r="I11" s="5">
         <v>5</v>
       </c>
       <c r="J11" s="4">
@@ -794,14 +794,14 @@
       <c r="D12" s="5">
         <v>5</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>5</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="5">
+        <v>5</v>
+      </c>
+      <c r="H12" s="5">
         <v>5</v>
       </c>
       <c r="I12" s="2"/>
@@ -822,13 +822,13 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="G13" s="5">
+        <v>5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>5</v>
+      </c>
+      <c r="I13" s="5">
         <v>5</v>
       </c>
       <c r="J13">
@@ -842,25 +842,25 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>5</v>
       </c>
       <c r="D14" s="5">
         <v>5</v>
       </c>
-      <c r="E14" s="2">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2">
-        <v>5</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="E14" s="5">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>5</v>
+      </c>
+      <c r="G14" s="5">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5">
+        <v>5</v>
+      </c>
+      <c r="I14" s="5">
         <v>5</v>
       </c>
       <c r="J14" s="4">
@@ -884,17 +884,17 @@
       <c r="D15" s="5">
         <v>5</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="5">
         <v>5</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>5</v>
-      </c>
-      <c r="H15" s="2">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="G15" s="5">
+        <v>5</v>
+      </c>
+      <c r="H15" s="5">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5">
         <v>5</v>
       </c>
       <c r="J15" s="6">
@@ -908,20 +908,20 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>5</v>
       </c>
       <c r="D16" s="5">
         <v>5</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="5">
         <v>5</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>5</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" s="5">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5">
         <v>5</v>
       </c>
       <c r="I16" s="2"/>
@@ -939,7 +939,7 @@
       <c r="D17" s="5">
         <v>5</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="5">
         <v>5</v>
       </c>
       <c r="F17" s="2"/>
@@ -961,7 +961,7 @@
       <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="5">
         <v>5</v>
       </c>
       <c r="F18" s="2"/>
@@ -979,25 +979,25 @@
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2">
-        <v>5</v>
-      </c>
-      <c r="F19" s="2">
-        <v>5</v>
-      </c>
-      <c r="G19" s="2">
-        <v>5</v>
-      </c>
-      <c r="H19" s="2">
-        <v>5</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="C19" s="5">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5">
+        <v>5</v>
+      </c>
+      <c r="G19" s="5">
+        <v>5</v>
+      </c>
+      <c r="H19" s="5">
+        <v>5</v>
+      </c>
+      <c r="I19" s="5">
         <v>5</v>
       </c>
       <c r="L19">
@@ -1017,13 +1017,13 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="G20" s="5">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5">
+        <v>5</v>
+      </c>
+      <c r="I20" s="5">
         <v>5</v>
       </c>
       <c r="J20" s="4">
@@ -1037,25 +1037,25 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="5">
         <v>5</v>
       </c>
       <c r="D21" s="5">
         <v>5</v>
       </c>
-      <c r="E21" s="2">
-        <v>5</v>
-      </c>
-      <c r="F21" s="2">
-        <v>5</v>
-      </c>
-      <c r="G21" s="2">
-        <v>5</v>
-      </c>
-      <c r="H21" s="2">
-        <v>5</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="E21" s="5">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5">
+        <v>5</v>
+      </c>
+      <c r="H21" s="5">
+        <v>5</v>
+      </c>
+      <c r="I21" s="5">
         <v>5</v>
       </c>
       <c r="J21">
@@ -1069,23 +1069,23 @@
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="5">
         <v>5</v>
       </c>
       <c r="D22" s="5">
         <v>5</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="5">
         <v>5</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2">
-        <v>5</v>
-      </c>
-      <c r="H22" s="2">
-        <v>5</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="G22" s="5">
+        <v>5</v>
+      </c>
+      <c r="H22" s="5">
+        <v>5</v>
+      </c>
+      <c r="I22" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1100,16 +1100,16 @@
       <c r="D23" s="5">
         <v>5</v>
       </c>
-      <c r="E23" s="2">
-        <v>5</v>
-      </c>
-      <c r="F23" s="2">
-        <v>5</v>
-      </c>
-      <c r="G23" s="2">
-        <v>5</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="E23" s="5">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>5</v>
+      </c>
+      <c r="G23" s="5">
+        <v>5</v>
+      </c>
+      <c r="H23" s="5">
         <v>5</v>
       </c>
       <c r="I23" s="2"/>
@@ -1129,13 +1129,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <v>5</v>
-      </c>
-      <c r="H24" s="2">
-        <v>5</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="G24" s="5">
+        <v>5</v>
+      </c>
+      <c r="H24" s="5">
+        <v>5</v>
+      </c>
+      <c r="I24" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1146,22 +1146,22 @@
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="5">
         <v>5</v>
       </c>
       <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="E25" s="2">
-        <v>5</v>
-      </c>
-      <c r="F25" s="2">
-        <v>5</v>
-      </c>
-      <c r="G25" s="2">
-        <v>5</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="E25" s="5">
+        <v>5</v>
+      </c>
+      <c r="F25" s="5">
+        <v>5</v>
+      </c>
+      <c r="G25" s="5">
+        <v>5</v>
+      </c>
+      <c r="H25" s="5">
         <v>5</v>
       </c>
       <c r="I25" s="2"/>
@@ -1180,19 +1180,19 @@
       <c r="D26" s="5">
         <v>5</v>
       </c>
-      <c r="E26" s="2">
-        <v>5</v>
-      </c>
-      <c r="F26" s="2">
-        <v>5</v>
-      </c>
-      <c r="G26" s="2">
-        <v>5</v>
-      </c>
-      <c r="H26" s="2">
-        <v>5</v>
-      </c>
-      <c r="I26" s="2">
+      <c r="E26" s="5">
+        <v>5</v>
+      </c>
+      <c r="F26" s="5">
+        <v>5</v>
+      </c>
+      <c r="G26" s="5">
+        <v>5</v>
+      </c>
+      <c r="H26" s="5">
+        <v>5</v>
+      </c>
+      <c r="I26" s="5">
         <v>5</v>
       </c>
       <c r="J26" s="4">
@@ -1233,14 +1233,14 @@
       <c r="D28" s="5">
         <v>5</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="5">
         <v>5</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="2">
-        <v>5</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="G28" s="5">
+        <v>5</v>
+      </c>
+      <c r="H28" s="5">
         <v>5</v>
       </c>
       <c r="I28" s="2">

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-220\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90B6E6A-7511-4420-9EC5-7312672C61B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932FD74E-40EF-41ED-AE95-C26D83791306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Абдуллаев Тагир</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Лаб_14</t>
+  </si>
+  <si>
+    <t>Лаб_15-21</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +165,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -233,8 +242,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -542,10 +557,10 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I26" activeCellId="10" sqref="I10 I11 I13 I14 I15 I19 I20 I21 I22 I24 I26"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -556,27 +571,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -609,6 +624,9 @@
       </c>
       <c r="L3" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -679,6 +697,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
+      <c r="L7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -752,6 +773,9 @@
       <c r="L10" s="4">
         <v>5</v>
       </c>
+      <c r="M10" s="4">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -900,6 +924,9 @@
       <c r="J15" s="6">
         <v>5</v>
       </c>
+      <c r="L15" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -926,7 +953,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -950,7 +977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -972,7 +999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1004,7 +1031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1030,7 +1057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1061,8 +1088,11 @@
       <c r="J21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="L21" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1089,7 +1119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1114,7 +1144,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1139,7 +1169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1168,8 +1198,11 @@
       <c r="J25" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="K25" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1204,8 +1237,11 @@
       <c r="L26" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="M26" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1220,7 +1256,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1247,7 +1283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932FD74E-40EF-41ED-AE95-C26D83791306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E7A28E-052E-4D20-8FC5-F1EAF4C03CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,23 +233,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -554,13 +552,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -571,27 +569,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
     </row>
     <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -645,19 +643,28 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
         <v>5</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -673,9 +680,17 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6">
-        <v>5</v>
-      </c>
+      <c r="J6" s="8">
+        <v>5</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -684,22 +699,40 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="5">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="L7">
-        <v>5</v>
-      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="8">
+        <v>5</v>
+      </c>
+      <c r="K7" s="8">
+        <v>5</v>
+      </c>
+      <c r="L7" s="8">
+        <v>5</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -709,15 +742,33 @@
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8">
-        <v>5</v>
-      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+      <c r="J8" s="8">
+        <v>5</v>
+      </c>
+      <c r="K8" s="8">
+        <v>5</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -726,7 +777,7 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>5</v>
       </c>
       <c r="D9" s="2"/>
@@ -735,6 +786,15 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -743,39 +803,44 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5">
-        <v>5</v>
-      </c>
-      <c r="F10" s="5">
-        <v>5</v>
-      </c>
-      <c r="G10" s="5">
-        <v>5</v>
-      </c>
-      <c r="H10" s="5">
-        <v>5</v>
-      </c>
-      <c r="I10" s="5">
-        <v>5</v>
-      </c>
-      <c r="J10" s="4">
-        <v>5</v>
-      </c>
-      <c r="K10" s="4">
-        <v>5</v>
-      </c>
-      <c r="L10" s="4">
-        <v>5</v>
-      </c>
-      <c r="M10" s="4">
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+      <c r="J10" s="6">
+        <v>5</v>
+      </c>
+      <c r="K10" s="6">
+        <v>5</v>
+      </c>
+      <c r="L10" s="6">
+        <v>5</v>
+      </c>
+      <c r="M10" s="6">
         <v>35</v>
       </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -784,26 +849,36 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="5">
-        <v>5</v>
-      </c>
-      <c r="H11" s="5">
-        <v>5</v>
-      </c>
-      <c r="I11" s="5">
-        <v>5</v>
-      </c>
-      <c r="J11" s="4">
-        <v>5</v>
-      </c>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
+      <c r="J11" s="6">
+        <v>5</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -812,26 +887,38 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="5">
-        <v>5</v>
-      </c>
-      <c r="H12" s="5">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12">
-        <v>5</v>
-      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
+      <c r="J12" s="8">
+        <v>5</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -840,24 +927,36 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="5">
-        <v>5</v>
-      </c>
-      <c r="H13" s="5">
-        <v>5</v>
-      </c>
-      <c r="I13" s="5">
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5</v>
+      </c>
+      <c r="J13" s="8">
+        <v>5</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -866,36 +965,42 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5">
-        <v>5</v>
-      </c>
-      <c r="F14" s="5">
-        <v>5</v>
-      </c>
-      <c r="G14" s="5">
-        <v>5</v>
-      </c>
-      <c r="H14" s="5">
-        <v>5</v>
-      </c>
-      <c r="I14" s="5">
-        <v>5</v>
-      </c>
-      <c r="J14" s="4">
-        <v>5</v>
-      </c>
-      <c r="K14" s="4">
-        <v>5</v>
-      </c>
-      <c r="L14" s="4">
-        <v>5</v>
-      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5</v>
+      </c>
+      <c r="J14" s="6">
+        <v>5</v>
+      </c>
+      <c r="K14" s="6">
+        <v>5</v>
+      </c>
+      <c r="L14" s="6">
+        <v>5</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
     </row>
     <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -905,28 +1010,37 @@
         <v>10</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="5">
-        <v>5</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15" s="4">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4">
         <v>5</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="5">
-        <v>5</v>
-      </c>
-      <c r="H15" s="5">
-        <v>5</v>
-      </c>
-      <c r="I15" s="5">
-        <v>5</v>
-      </c>
-      <c r="J15" s="6">
-        <v>5</v>
-      </c>
-      <c r="L15" s="7">
-        <v>5</v>
-      </c>
+      <c r="G15" s="4">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5</v>
+      </c>
+      <c r="J15" s="7">
+        <v>5</v>
+      </c>
+      <c r="K15" s="8">
+        <v>5</v>
+      </c>
+      <c r="L15" s="5">
+        <v>5</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
     </row>
     <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -935,49 +1049,66 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5">
-        <v>5</v>
-      </c>
-      <c r="D16" s="5">
-        <v>5</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4">
         <v>5</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="5">
-        <v>5</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="G16" s="4">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4">
         <v>5</v>
       </c>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+    </row>
+    <row r="17" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="5">
-        <v>5</v>
-      </c>
-      <c r="D17" s="5">
-        <v>5</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4">
         <v>5</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="J17" s="8">
+        <v>5</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -985,141 +1116,191 @@
         <v>13</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="5">
-        <v>5</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="D18" s="4">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
         <v>5</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="J18" s="8">
+        <v>5</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5">
-        <v>5</v>
-      </c>
-      <c r="D19" s="5">
-        <v>5</v>
-      </c>
-      <c r="E19" s="5">
-        <v>5</v>
-      </c>
-      <c r="F19" s="5">
-        <v>5</v>
-      </c>
-      <c r="G19" s="5">
-        <v>5</v>
-      </c>
-      <c r="H19" s="5">
-        <v>5</v>
-      </c>
-      <c r="I19" s="5">
-        <v>5</v>
-      </c>
-      <c r="L19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4">
+        <v>5</v>
+      </c>
+      <c r="J19" s="8">
+        <v>5</v>
+      </c>
+      <c r="K19" s="8">
+        <v>5</v>
+      </c>
+      <c r="L19" s="8">
+        <v>5</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="5">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="4">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="5">
-        <v>5</v>
-      </c>
-      <c r="H20" s="5">
-        <v>5</v>
-      </c>
-      <c r="I20" s="5">
-        <v>5</v>
-      </c>
-      <c r="J20" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="G20" s="4">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4">
+        <v>5</v>
+      </c>
+      <c r="J20" s="6">
+        <v>5</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="5">
-        <v>5</v>
-      </c>
-      <c r="D21" s="5">
-        <v>5</v>
-      </c>
-      <c r="E21" s="5">
-        <v>5</v>
-      </c>
-      <c r="F21" s="5">
-        <v>5</v>
-      </c>
-      <c r="G21" s="5">
-        <v>5</v>
-      </c>
-      <c r="H21" s="5">
-        <v>5</v>
-      </c>
-      <c r="I21" s="5">
-        <v>5</v>
-      </c>
-      <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="L21" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4">
+        <v>5</v>
+      </c>
+      <c r="I21" s="4">
+        <v>5</v>
+      </c>
+      <c r="J21" s="8">
+        <v>5</v>
+      </c>
+      <c r="K21" s="7">
+        <v>5</v>
+      </c>
+      <c r="L21" s="5">
+        <v>5</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="5">
-        <v>5</v>
-      </c>
-      <c r="D22" s="5">
-        <v>5</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4">
         <v>5</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="5">
-        <v>5</v>
-      </c>
-      <c r="H22" s="5">
-        <v>5</v>
-      </c>
-      <c r="I22" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4">
+        <v>5</v>
+      </c>
+      <c r="I22" s="4">
+        <v>5</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1127,82 +1308,109 @@
         <v>18</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="5">
-        <v>5</v>
-      </c>
-      <c r="E23" s="5">
-        <v>5</v>
-      </c>
-      <c r="F23" s="5">
-        <v>5</v>
-      </c>
-      <c r="G23" s="5">
-        <v>5</v>
-      </c>
-      <c r="H23" s="5">
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4">
         <v>5</v>
       </c>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="5">
-        <v>5</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4">
         <v>5</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="5">
-        <v>5</v>
-      </c>
-      <c r="H24" s="5">
-        <v>5</v>
-      </c>
-      <c r="I24" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="G24" s="4">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4">
+        <v>5</v>
+      </c>
+      <c r="I24" s="4">
+        <v>5</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+    </row>
+    <row r="25" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="5">
-        <v>5</v>
-      </c>
-      <c r="D25" s="5">
-        <v>5</v>
-      </c>
-      <c r="E25" s="5">
-        <v>5</v>
-      </c>
-      <c r="F25" s="5">
-        <v>5</v>
-      </c>
-      <c r="G25" s="5">
-        <v>5</v>
-      </c>
-      <c r="H25" s="5">
-        <v>5</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="4">
-        <v>5</v>
-      </c>
-      <c r="K25" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="C25" s="4">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2">
+        <v>5</v>
+      </c>
+      <c r="J25" s="6">
+        <v>5</v>
+      </c>
+      <c r="K25" s="6">
+        <v>5</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+    </row>
+    <row r="26" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1210,38 +1418,43 @@
         <v>21</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="5">
-        <v>5</v>
-      </c>
-      <c r="E26" s="5">
-        <v>5</v>
-      </c>
-      <c r="F26" s="5">
-        <v>5</v>
-      </c>
-      <c r="G26" s="5">
-        <v>5</v>
-      </c>
-      <c r="H26" s="5">
-        <v>5</v>
-      </c>
-      <c r="I26" s="5">
-        <v>5</v>
-      </c>
-      <c r="J26" s="4">
-        <v>5</v>
-      </c>
-      <c r="K26" s="4">
-        <v>5</v>
-      </c>
-      <c r="L26" s="4">
-        <v>5</v>
-      </c>
-      <c r="M26" s="4">
+      <c r="D26" s="4">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4">
+        <v>5</v>
+      </c>
+      <c r="I26" s="4">
+        <v>5</v>
+      </c>
+      <c r="J26" s="6">
+        <v>5</v>
+      </c>
+      <c r="K26" s="6">
+        <v>5</v>
+      </c>
+      <c r="L26" s="6">
+        <v>5</v>
+      </c>
+      <c r="M26" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+    </row>
+    <row r="27" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1255,35 +1468,53 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+    </row>
+    <row r="28" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="5">
-        <v>5</v>
-      </c>
-      <c r="D28" s="5">
-        <v>5</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="C28" s="4">
+        <v>5</v>
+      </c>
+      <c r="D28" s="4">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4">
         <v>5</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="5">
-        <v>5</v>
-      </c>
-      <c r="H28" s="5">
+      <c r="G28" s="4">
+        <v>5</v>
+      </c>
+      <c r="H28" s="4">
         <v>5</v>
       </c>
       <c r="I28" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1291,6 +1522,103 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+    </row>
+    <row r="33" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+    </row>
+    <row r="35" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+    </row>
+    <row r="36" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+    </row>
+    <row r="37" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E7A28E-052E-4D20-8FC5-F1EAF4C03CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2F8820-763A-449D-97F5-E4AD5391D4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,7 +558,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -780,14 +780,26 @@
       <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="8">
+        <v>5</v>
+      </c>
+      <c r="K9" s="8">
+        <v>5</v>
+      </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -871,9 +883,15 @@
       <c r="J11" s="6">
         <v>5</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="K11" s="8">
+        <v>5</v>
+      </c>
+      <c r="L11" s="8">
+        <v>5</v>
+      </c>
+      <c r="M11" s="8">
+        <v>5</v>
+      </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -949,7 +967,9 @@
       <c r="J13" s="8">
         <v>5</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="8">
+        <v>5</v>
+      </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -995,7 +1015,9 @@
       <c r="L14" s="6">
         <v>5</v>
       </c>
-      <c r="M14" s="8"/>
+      <c r="M14" s="8">
+        <v>35</v>
+      </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -1211,9 +1233,15 @@
       <c r="J20" s="6">
         <v>5</v>
       </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="K20" s="8">
+        <v>5</v>
+      </c>
+      <c r="L20" s="8">
+        <v>5</v>
+      </c>
+      <c r="M20" s="8">
+        <v>5</v>
+      </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -1504,9 +1532,13 @@
       <c r="I28" s="2">
         <v>5</v>
       </c>
-      <c r="J28" s="8"/>
+      <c r="J28" s="8">
+        <v>5</v>
+      </c>
       <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="L28" s="8">
+        <v>5</v>
+      </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2F8820-763A-449D-97F5-E4AD5391D4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6818F8-A688-47EF-9800-8B5332F65EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,7 +558,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -674,17 +674,31 @@
         <v>1</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
       <c r="J6" s="8">
         <v>5</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="K6" s="8">
+        <v>5</v>
+      </c>
+      <c r="L6" s="8">
+        <v>5</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6818F8-A688-47EF-9800-8B5332F65EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413F0E5D-D996-4AC1-94DE-02B1A409A4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,7 +558,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1094,9 @@
       <c r="E16" s="4">
         <v>5</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
       <c r="G16" s="4">
         <v>5</v>
       </c>
@@ -1389,7 +1391,9 @@
       <c r="D24" s="4">
         <v>5</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="4">
         <v>5</v>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413F0E5D-D996-4AC1-94DE-02B1A409A4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EBAB3D-06CA-4A96-B333-AA88DECE9420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EBAB3D-06CA-4A96-B333-AA88DECE9420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8FB024-B236-43F8-8C12-2043C9F38D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,7 +558,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -652,12 +652,24 @@
       <c r="E5" s="4">
         <v>5</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5</v>
+      </c>
+      <c r="J5" s="8">
+        <v>5</v>
+      </c>
+      <c r="K5" s="8">
+        <v>5</v>
+      </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -943,7 +955,9 @@
       <c r="J12" s="8">
         <v>5</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="8">
+        <v>5</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -1103,9 +1117,15 @@
       <c r="H16" s="4">
         <v>5</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="2">
+        <v>5</v>
+      </c>
+      <c r="J16" s="8">
+        <v>5</v>
+      </c>
+      <c r="K16" s="8">
+        <v>5</v>
+      </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
@@ -1367,8 +1387,12 @@
       <c r="H23" s="4">
         <v>5</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="8"/>
+      <c r="I23" s="2">
+        <v>5</v>
+      </c>
+      <c r="J23" s="8">
+        <v>5</v>
+      </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8FB024-B236-43F8-8C12-2043C9F38D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F16CB1B-37B0-4760-9E48-844926C7D698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Абдуллаев Тагир</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>Лаб_15-21</t>
+  </si>
+  <si>
+    <t>Тест_2</t>
+  </si>
+  <si>
+    <t>Тест_3</t>
+  </si>
+  <si>
+    <t>Тест_4</t>
   </si>
 </sst>
 </file>
@@ -558,7 +567,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -597,46 +606,55 @@
         <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -646,39 +664,40 @@
       <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4">
         <v>5</v>
       </c>
       <c r="I5" s="2">
         <v>5</v>
       </c>
-      <c r="J5" s="8">
-        <v>5</v>
-      </c>
-      <c r="K5" s="8">
-        <v>5</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5</v>
+      </c>
+      <c r="M5" s="8">
+        <v>5</v>
+      </c>
+      <c r="N5" s="8">
+        <v>5</v>
+      </c>
+      <c r="O5" s="8">
+        <v>5</v>
+      </c>
+      <c r="P5" s="8">
+        <v>10</v>
+      </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -686,39 +705,36 @@
         <v>1</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>5</v>
       </c>
       <c r="H6" s="2">
         <v>5</v>
       </c>
-      <c r="I6" s="2">
-        <v>5</v>
-      </c>
-      <c r="J6" s="8">
-        <v>5</v>
-      </c>
-      <c r="K6" s="8">
-        <v>5</v>
-      </c>
-      <c r="L6" s="8">
-        <v>5</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5</v>
+      </c>
+      <c r="M6" s="8">
+        <v>5</v>
+      </c>
+      <c r="N6" s="8">
+        <v>5</v>
+      </c>
+      <c r="O6" s="8">
+        <v>5</v>
+      </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -728,39 +744,36 @@
       <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4">
         <v>5</v>
       </c>
       <c r="I7" s="2">
         <v>5</v>
       </c>
-      <c r="J7" s="8">
-        <v>5</v>
-      </c>
-      <c r="K7" s="8">
-        <v>5</v>
-      </c>
-      <c r="L7" s="8">
-        <v>5</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>5</v>
+      </c>
+      <c r="M7" s="8">
+        <v>5</v>
+      </c>
+      <c r="N7" s="8">
+        <v>5</v>
+      </c>
+      <c r="O7" s="8">
+        <v>5</v>
+      </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -768,35 +781,32 @@
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
       <c r="G8" s="2">
         <v>5</v>
       </c>
-      <c r="H8" s="2">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2">
-        <v>5</v>
-      </c>
-      <c r="J8" s="8">
-        <v>5</v>
-      </c>
-      <c r="K8" s="8">
-        <v>5</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>5</v>
+      </c>
+      <c r="M8" s="8">
+        <v>5</v>
+      </c>
+      <c r="N8" s="8">
+        <v>5</v>
+      </c>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -806,35 +816,32 @@
       <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" s="2">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
       <c r="G9" s="2">
         <v>5</v>
       </c>
-      <c r="H9" s="2">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2">
-        <v>5</v>
-      </c>
-      <c r="J9" s="8">
-        <v>5</v>
-      </c>
-      <c r="K9" s="8">
-        <v>5</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>5</v>
+      </c>
+      <c r="M9" s="8">
+        <v>5</v>
+      </c>
+      <c r="N9" s="8">
+        <v>5</v>
+      </c>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -844,13 +851,13 @@
       <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
         <v>5</v>
       </c>
       <c r="G10" s="4">
@@ -862,25 +869,31 @@
       <c r="I10" s="4">
         <v>5</v>
       </c>
-      <c r="J10" s="6">
-        <v>5</v>
-      </c>
-      <c r="K10" s="6">
-        <v>5</v>
-      </c>
-      <c r="L10" s="6">
+      <c r="J10" s="4">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4">
         <v>5</v>
       </c>
       <c r="M10" s="6">
+        <v>5</v>
+      </c>
+      <c r="N10" s="6">
+        <v>5</v>
+      </c>
+      <c r="O10" s="6">
+        <v>5</v>
+      </c>
+      <c r="P10" s="6">
         <v>35</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -890,41 +903,41 @@
       <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="D11" s="4">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2"/>
+      <c r="F11">
+        <v>5</v>
+      </c>
       <c r="G11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="4">
-        <v>5</v>
-      </c>
-      <c r="I11" s="4">
-        <v>5</v>
-      </c>
-      <c r="J11" s="6">
-        <v>5</v>
-      </c>
-      <c r="K11" s="8">
-        <v>5</v>
-      </c>
-      <c r="L11" s="8">
-        <v>5</v>
-      </c>
-      <c r="M11" s="8">
-        <v>5</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="4">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4">
+        <v>5</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5</v>
+      </c>
+      <c r="N11" s="8">
+        <v>5</v>
+      </c>
+      <c r="O11" s="8">
+        <v>5</v>
+      </c>
+      <c r="P11" s="8">
+        <v>10</v>
+      </c>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -934,15 +947,6 @@
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2">
-        <v>5</v>
-      </c>
       <c r="G12" s="4">
         <v>5</v>
       </c>
@@ -952,21 +956,27 @@
       <c r="I12" s="2">
         <v>5</v>
       </c>
-      <c r="J12" s="8">
-        <v>5</v>
-      </c>
-      <c r="K12" s="8">
-        <v>5</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="J12" s="4">
+        <v>5</v>
+      </c>
+      <c r="K12" s="4">
+        <v>5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>5</v>
+      </c>
+      <c r="M12" s="8">
+        <v>5</v>
+      </c>
+      <c r="N12" s="8">
+        <v>5</v>
+      </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -976,37 +986,37 @@
       <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="D13" s="2">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4">
-        <v>5</v>
-      </c>
-      <c r="H13" s="4">
-        <v>5</v>
-      </c>
-      <c r="I13" s="4">
-        <v>5</v>
-      </c>
-      <c r="J13" s="8">
-        <v>5</v>
-      </c>
-      <c r="K13" s="8">
-        <v>5</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="4">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>5</v>
+      </c>
+      <c r="M13" s="8">
+        <v>5</v>
+      </c>
+      <c r="N13" s="8">
+        <v>5</v>
+      </c>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
     </row>
-    <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1016,15 +1026,6 @@
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4">
-        <v>5</v>
-      </c>
-      <c r="F14" s="4">
-        <v>5</v>
-      </c>
       <c r="G14" s="4">
         <v>5</v>
       </c>
@@ -1034,25 +1035,31 @@
       <c r="I14" s="4">
         <v>5</v>
       </c>
-      <c r="J14" s="6">
-        <v>5</v>
-      </c>
-      <c r="K14" s="6">
-        <v>5</v>
-      </c>
-      <c r="L14" s="6">
-        <v>5</v>
-      </c>
-      <c r="M14" s="8">
+      <c r="J14" s="4">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4">
+        <v>5</v>
+      </c>
+      <c r="M14" s="6">
+        <v>5</v>
+      </c>
+      <c r="N14" s="6">
+        <v>5</v>
+      </c>
+      <c r="O14" s="6">
+        <v>5</v>
+      </c>
+      <c r="P14" s="8">
         <v>35</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
     </row>
-    <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1060,39 +1067,36 @@
         <v>10</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="4">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2"/>
       <c r="G15" s="4">
         <v>5</v>
       </c>
       <c r="H15" s="4">
         <v>5</v>
       </c>
-      <c r="I15" s="4">
-        <v>5</v>
-      </c>
-      <c r="J15" s="7">
-        <v>5</v>
-      </c>
-      <c r="K15" s="8">
-        <v>5</v>
-      </c>
-      <c r="L15" s="5">
-        <v>5</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="4">
+        <v>5</v>
+      </c>
+      <c r="K15" s="4">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4">
+        <v>5</v>
+      </c>
+      <c r="M15" s="7">
+        <v>5</v>
+      </c>
+      <c r="N15" s="8">
+        <v>5</v>
+      </c>
+      <c r="O15" s="5">
+        <v>5</v>
+      </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
     </row>
-    <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1102,13 +1106,10 @@
       <c r="C16" s="4">
         <v>5</v>
       </c>
-      <c r="D16" s="4">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="F16">
         <v>5</v>
       </c>
       <c r="G16" s="4">
@@ -1120,21 +1121,27 @@
       <c r="I16" s="2">
         <v>5</v>
       </c>
-      <c r="J16" s="8">
-        <v>5</v>
-      </c>
-      <c r="K16" s="8">
-        <v>5</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="J16" s="4">
+        <v>5</v>
+      </c>
+      <c r="K16" s="4">
+        <v>5</v>
+      </c>
+      <c r="L16" s="2">
+        <v>5</v>
+      </c>
+      <c r="M16" s="8">
+        <v>5</v>
+      </c>
+      <c r="N16" s="8">
+        <v>5</v>
+      </c>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
     </row>
-    <row r="17" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1144,29 +1151,26 @@
       <c r="C17" s="4">
         <v>5</v>
       </c>
-      <c r="D17" s="4">
-        <v>5</v>
-      </c>
-      <c r="E17" s="4">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="4">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4">
+        <v>5</v>
+      </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="8">
-        <v>5</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="8">
+        <v>5</v>
+      </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
     </row>
-    <row r="18" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1174,29 +1178,26 @@
         <v>13</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="4">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="4">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4">
+        <v>5</v>
+      </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="8">
-        <v>5</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="8">
+        <v>5</v>
+      </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
     </row>
-    <row r="19" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1206,15 +1207,6 @@
       <c r="C19" s="4">
         <v>5</v>
       </c>
-      <c r="D19" s="4">
-        <v>5</v>
-      </c>
-      <c r="E19" s="4">
-        <v>5</v>
-      </c>
-      <c r="F19" s="4">
-        <v>5</v>
-      </c>
       <c r="G19" s="4">
         <v>5</v>
       </c>
@@ -1224,23 +1216,29 @@
       <c r="I19" s="4">
         <v>5</v>
       </c>
-      <c r="J19" s="8">
-        <v>5</v>
-      </c>
-      <c r="K19" s="8">
-        <v>5</v>
-      </c>
-      <c r="L19" s="8">
-        <v>5</v>
-      </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="J19" s="4">
+        <v>5</v>
+      </c>
+      <c r="K19" s="4">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4">
+        <v>5</v>
+      </c>
+      <c r="M19" s="8">
+        <v>5</v>
+      </c>
+      <c r="N19" s="8">
+        <v>5</v>
+      </c>
+      <c r="O19" s="8">
+        <v>5</v>
+      </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
     </row>
-    <row r="20" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1250,41 +1248,38 @@
       <c r="C20" s="4">
         <v>5</v>
       </c>
-      <c r="D20" s="2">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="4">
-        <v>5</v>
-      </c>
-      <c r="H20" s="4">
-        <v>5</v>
-      </c>
-      <c r="I20" s="4">
-        <v>5</v>
-      </c>
-      <c r="J20" s="6">
-        <v>5</v>
-      </c>
-      <c r="K20" s="8">
-        <v>5</v>
-      </c>
-      <c r="L20" s="8">
-        <v>5</v>
-      </c>
-      <c r="M20" s="8">
-        <v>5</v>
-      </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="4">
+        <v>5</v>
+      </c>
+      <c r="K20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4">
+        <v>5</v>
+      </c>
+      <c r="M20" s="6">
+        <v>5</v>
+      </c>
+      <c r="N20" s="8">
+        <v>5</v>
+      </c>
+      <c r="O20" s="8">
+        <v>5</v>
+      </c>
+      <c r="P20" s="8">
+        <v>5</v>
+      </c>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
     </row>
-    <row r="21" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1294,15 +1289,6 @@
       <c r="C21" s="4">
         <v>5</v>
       </c>
-      <c r="D21" s="4">
-        <v>5</v>
-      </c>
-      <c r="E21" s="4">
-        <v>5</v>
-      </c>
-      <c r="F21" s="4">
-        <v>5</v>
-      </c>
       <c r="G21" s="4">
         <v>5</v>
       </c>
@@ -1312,23 +1298,29 @@
       <c r="I21" s="4">
         <v>5</v>
       </c>
-      <c r="J21" s="8">
-        <v>5</v>
-      </c>
-      <c r="K21" s="7">
-        <v>5</v>
-      </c>
-      <c r="L21" s="5">
-        <v>5</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
+      <c r="J21" s="4">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4">
+        <v>5</v>
+      </c>
+      <c r="M21" s="8">
+        <v>5</v>
+      </c>
+      <c r="N21" s="7">
+        <v>5</v>
+      </c>
+      <c r="O21" s="5">
+        <v>5</v>
+      </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1338,25 +1330,22 @@
       <c r="C22" s="4">
         <v>5</v>
       </c>
-      <c r="D22" s="4">
-        <v>5</v>
-      </c>
-      <c r="E22" s="4">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2"/>
       <c r="G22" s="4">
         <v>5</v>
       </c>
       <c r="H22" s="4">
         <v>5</v>
       </c>
-      <c r="I22" s="4">
-        <v>5</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="4">
+        <v>5</v>
+      </c>
+      <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
+        <v>5</v>
+      </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
@@ -1364,21 +1353,14 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="4">
-        <v>5</v>
-      </c>
-      <c r="E23" s="4">
-        <v>5</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="C23" s="2">
         <v>5</v>
       </c>
       <c r="G23" s="4">
@@ -1387,22 +1369,32 @@
       <c r="H23" s="4">
         <v>5</v>
       </c>
-      <c r="I23" s="2">
-        <v>5</v>
-      </c>
-      <c r="J23" s="8">
-        <v>5</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
+      <c r="I23" s="4">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4">
+        <v>5</v>
+      </c>
+      <c r="K23" s="4">
+        <v>5</v>
+      </c>
+      <c r="L23" s="2">
+        <v>5</v>
+      </c>
+      <c r="M23" s="8">
+        <v>5</v>
+      </c>
+      <c r="N23" s="8">
+        <v>5</v>
+      </c>
+      <c r="O23" s="8">
+        <v>5</v>
+      </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1412,25 +1404,22 @@
       <c r="C24" s="4">
         <v>5</v>
       </c>
-      <c r="D24" s="4">
-        <v>5</v>
-      </c>
-      <c r="E24" s="2">
-        <v>5</v>
-      </c>
-      <c r="F24" s="2"/>
       <c r="G24" s="4">
         <v>5</v>
       </c>
-      <c r="H24" s="4">
-        <v>5</v>
-      </c>
-      <c r="I24" s="4">
-        <v>5</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="4">
+        <v>5</v>
+      </c>
+      <c r="K24" s="4">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4">
+        <v>5</v>
+      </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -1438,7 +1427,7 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1448,39 +1437,36 @@
       <c r="C25" s="4">
         <v>5</v>
       </c>
-      <c r="D25" s="4">
-        <v>5</v>
-      </c>
-      <c r="E25" s="4">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4">
-        <v>5</v>
-      </c>
       <c r="G25" s="4">
         <v>5</v>
       </c>
       <c r="H25" s="4">
         <v>5</v>
       </c>
-      <c r="I25" s="2">
-        <v>5</v>
-      </c>
-      <c r="J25" s="6">
-        <v>5</v>
-      </c>
-      <c r="K25" s="6">
-        <v>5</v>
-      </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
+      <c r="I25" s="4">
+        <v>5</v>
+      </c>
+      <c r="J25" s="4">
+        <v>5</v>
+      </c>
+      <c r="K25" s="4">
+        <v>5</v>
+      </c>
+      <c r="L25" s="2">
+        <v>5</v>
+      </c>
+      <c r="M25" s="6">
+        <v>5</v>
+      </c>
+      <c r="N25" s="6">
+        <v>5</v>
+      </c>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1488,15 +1474,6 @@
         <v>21</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="4">
-        <v>5</v>
-      </c>
-      <c r="E26" s="4">
-        <v>5</v>
-      </c>
-      <c r="F26" s="4">
-        <v>5</v>
-      </c>
       <c r="G26" s="4">
         <v>5</v>
       </c>
@@ -1506,25 +1483,31 @@
       <c r="I26" s="4">
         <v>5</v>
       </c>
-      <c r="J26" s="6">
-        <v>5</v>
-      </c>
-      <c r="K26" s="6">
-        <v>5</v>
-      </c>
-      <c r="L26" s="6">
+      <c r="J26" s="4">
+        <v>5</v>
+      </c>
+      <c r="K26" s="4">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4">
         <v>5</v>
       </c>
       <c r="M26" s="6">
+        <v>5</v>
+      </c>
+      <c r="N26" s="6">
+        <v>5</v>
+      </c>
+      <c r="O26" s="6">
+        <v>5</v>
+      </c>
+      <c r="P26" s="6">
         <v>30</v>
       </c>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1532,15 +1515,12 @@
         <v>22</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
@@ -1548,7 +1528,7 @@
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
     </row>
-    <row r="28" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1558,47 +1538,41 @@
       <c r="C28" s="4">
         <v>5</v>
       </c>
-      <c r="D28" s="4">
-        <v>5</v>
-      </c>
-      <c r="E28" s="4">
-        <v>5</v>
-      </c>
-      <c r="F28" s="2"/>
       <c r="G28" s="4">
         <v>5</v>
       </c>
       <c r="H28" s="4">
         <v>5</v>
       </c>
-      <c r="I28" s="2">
-        <v>5</v>
-      </c>
-      <c r="J28" s="8">
-        <v>5</v>
-      </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8">
-        <v>5</v>
-      </c>
-      <c r="M28" s="8"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="4">
+        <v>5</v>
+      </c>
+      <c r="K28" s="4">
+        <v>5</v>
+      </c>
+      <c r="L28" s="2">
+        <v>5</v>
+      </c>
+      <c r="M28" s="8">
+        <v>5</v>
+      </c>
       <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
+      <c r="O28" s="8">
+        <v>5</v>
+      </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -1607,9 +1581,6 @@
       <c r="R29" s="8"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -1618,9 +1589,6 @@
       <c r="R30" s="8"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -1629,9 +1597,6 @@
       <c r="R31" s="8"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -1640,9 +1605,6 @@
       <c r="R32" s="8"/>
     </row>
     <row r="33" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -1651,9 +1613,6 @@
       <c r="R33" s="8"/>
     </row>
     <row r="34" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
@@ -1662,9 +1621,6 @@
       <c r="R34" s="8"/>
     </row>
     <row r="35" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F16CB1B-37B0-4760-9E48-844926C7D698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F471CA31-8B75-42BB-913D-50E681C9371B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,21 +94,12 @@
     <t>Шевченко Дмитрий</t>
   </si>
   <si>
-    <t>Лаб_6</t>
-  </si>
-  <si>
-    <t>Лаб_7</t>
-  </si>
-  <si>
     <t>Лаб_8</t>
   </si>
   <si>
     <t>Лаб_9</t>
   </si>
   <si>
-    <t>Тест_1</t>
-  </si>
-  <si>
     <t>Лаб_10</t>
   </si>
   <si>
@@ -127,28 +118,31 @@
     <t>Лаб_15-21</t>
   </si>
   <si>
-    <t>Тест_2</t>
-  </si>
-  <si>
-    <t>Тест_3</t>
-  </si>
-  <si>
-    <t>Тест_4</t>
+    <t>Т_1</t>
+  </si>
+  <si>
+    <t>Т_2</t>
+  </si>
+  <si>
+    <t>Т_3</t>
+  </si>
+  <si>
+    <t>Т_4</t>
+  </si>
+  <si>
+    <t>Л_6</t>
+  </si>
+  <si>
+    <t>Л_7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -231,15 +225,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -255,8 +249,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -561,118 +553,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="41.6328125" customWidth="1"/>
-    <col min="3" max="9" width="5.1796875" customWidth="1"/>
+    <col min="3" max="6" width="3" customWidth="1"/>
+    <col min="7" max="9" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-    </row>
-    <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+    <row r="1" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>5</v>
+      </c>
+      <c r="M4" s="8">
+        <v>5</v>
+      </c>
+      <c r="N4" s="8">
+        <v>5</v>
+      </c>
+      <c r="O4" s="8">
+        <v>5</v>
+      </c>
+      <c r="P4" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4">
-        <v>5</v>
-      </c>
-      <c r="H5" s="4">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2">
-        <v>5</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2">
         <v>5</v>
       </c>
@@ -691,30 +700,30 @@
       <c r="O5" s="8">
         <v>5</v>
       </c>
-      <c r="P5" s="8">
-        <v>10</v>
-      </c>
+      <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2">
-        <v>5</v>
-      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2">
         <v>5</v>
       </c>
@@ -734,26 +743,22 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4">
-        <v>5</v>
-      </c>
-      <c r="H7" s="4">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
       <c r="K7" s="2">
         <v>5</v>
       </c>
@@ -766,21 +771,21 @@
       <c r="N7" s="8">
         <v>5</v>
       </c>
-      <c r="O7" s="8">
-        <v>5</v>
-      </c>
+      <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
       <c r="G8" s="2">
         <v>5</v>
       </c>
@@ -806,69 +811,78 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2">
-        <v>5</v>
-      </c>
-      <c r="L9" s="2">
-        <v>5</v>
-      </c>
-      <c r="M9" s="8">
-        <v>5</v>
-      </c>
-      <c r="N9" s="8">
-        <v>5</v>
-      </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4">
+        <v>5</v>
+      </c>
+      <c r="M9" s="6">
+        <v>5</v>
+      </c>
+      <c r="N9" s="6">
+        <v>5</v>
+      </c>
+      <c r="O9" s="6">
+        <v>5</v>
+      </c>
+      <c r="P9" s="6">
+        <v>35</v>
+      </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10" s="4">
         <v>5</v>
       </c>
-      <c r="H10" s="4">
-        <v>5</v>
-      </c>
-      <c r="I10" s="4">
-        <v>5</v>
-      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="4">
         <v>5</v>
       </c>
@@ -881,88 +895,84 @@
       <c r="M10" s="6">
         <v>5</v>
       </c>
-      <c r="N10" s="6">
-        <v>5</v>
-      </c>
-      <c r="O10" s="6">
-        <v>5</v>
-      </c>
-      <c r="P10" s="6">
-        <v>35</v>
+      <c r="N10" s="8">
+        <v>5</v>
+      </c>
+      <c r="O10" s="8">
+        <v>5</v>
+      </c>
+      <c r="P10" s="8">
+        <v>10</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
       <c r="G11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="2">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2"/>
+      <c r="H11" s="4">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
       <c r="J11" s="4">
         <v>5</v>
       </c>
       <c r="K11" s="4">
         <v>5</v>
       </c>
-      <c r="L11" s="4">
-        <v>5</v>
-      </c>
-      <c r="M11" s="6">
+      <c r="L11" s="2">
+        <v>5</v>
+      </c>
+      <c r="M11" s="8">
         <v>5</v>
       </c>
       <c r="N11" s="8">
         <v>5</v>
       </c>
-      <c r="O11" s="8">
-        <v>5</v>
-      </c>
-      <c r="P11" s="8">
-        <v>10</v>
-      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="G12" s="4">
-        <v>5</v>
-      </c>
-      <c r="H12" s="4">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>5</v>
-      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="4">
         <v>5</v>
       </c>
       <c r="K12" s="4">
         <v>5</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="4">
         <v>5</v>
       </c>
       <c r="M12" s="8">
@@ -971,31 +981,34 @@
       <c r="N12" s="8">
         <v>5</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="O12" s="8">
+        <v>5</v>
+      </c>
+      <c r="P12" s="8">
+        <v>5</v>
+      </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2"/>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5</v>
+      </c>
       <c r="J13" s="4">
         <v>5</v>
       </c>
@@ -1005,36 +1018,36 @@
       <c r="L13" s="4">
         <v>5</v>
       </c>
-      <c r="M13" s="8">
-        <v>5</v>
-      </c>
-      <c r="N13" s="8">
-        <v>5</v>
-      </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="M13" s="6">
+        <v>5</v>
+      </c>
+      <c r="N13" s="6">
+        <v>5</v>
+      </c>
+      <c r="O13" s="6">
+        <v>5</v>
+      </c>
+      <c r="P13" s="8">
+        <v>35</v>
+      </c>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
     </row>
-    <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4">
-        <v>5</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="G14" s="4">
         <v>5</v>
       </c>
       <c r="H14" s="4">
         <v>5</v>
       </c>
-      <c r="I14" s="4">
-        <v>5</v>
-      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="4">
         <v>5</v>
       </c>
@@ -1044,98 +1057,88 @@
       <c r="L14" s="4">
         <v>5</v>
       </c>
-      <c r="M14" s="6">
-        <v>5</v>
-      </c>
-      <c r="N14" s="6">
-        <v>5</v>
-      </c>
-      <c r="O14" s="6">
-        <v>5</v>
-      </c>
-      <c r="P14" s="8">
-        <v>35</v>
-      </c>
+      <c r="M14" s="7">
+        <v>5</v>
+      </c>
+      <c r="N14" s="8">
+        <v>5</v>
+      </c>
+      <c r="O14" s="5">
+        <v>5</v>
+      </c>
+      <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
     </row>
-    <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
       <c r="G15" s="4">
         <v>5</v>
       </c>
       <c r="H15" s="4">
         <v>5</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>5</v>
+      </c>
       <c r="J15" s="4">
         <v>5</v>
       </c>
       <c r="K15" s="4">
         <v>5</v>
       </c>
-      <c r="L15" s="4">
-        <v>5</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="L15" s="2">
+        <v>5</v>
+      </c>
+      <c r="M15" s="8">
         <v>5</v>
       </c>
       <c r="N15" s="8">
         <v>5</v>
       </c>
-      <c r="O15" s="5">
-        <v>5</v>
-      </c>
+      <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
     </row>
-    <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C16" s="4">
         <v>5</v>
       </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
       <c r="G16" s="4">
         <v>5</v>
       </c>
       <c r="H16" s="4">
         <v>5</v>
       </c>
-      <c r="I16" s="2">
-        <v>5</v>
-      </c>
-      <c r="J16" s="4">
-        <v>5</v>
-      </c>
-      <c r="K16" s="4">
-        <v>5</v>
-      </c>
-      <c r="L16" s="2">
-        <v>5</v>
-      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="8">
         <v>5</v>
       </c>
-      <c r="N16" s="8">
-        <v>5</v>
-      </c>
+      <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
@@ -1143,14 +1146,12 @@
     </row>
     <row r="17" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4">
-        <v>5</v>
-      </c>
+      <c r="C17" s="2"/>
       <c r="G17" s="4">
         <v>5</v>
       </c>
@@ -1172,50 +1173,62 @@
     </row>
     <row r="18" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
       <c r="G18" s="4">
         <v>5</v>
       </c>
       <c r="H18" s="4">
         <v>5</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="I18" s="4">
+        <v>5</v>
+      </c>
+      <c r="J18" s="4">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4">
+        <v>5</v>
+      </c>
       <c r="M18" s="8">
         <v>5</v>
       </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="N18" s="8">
+        <v>5</v>
+      </c>
+      <c r="O18" s="8">
+        <v>5</v>
+      </c>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
     </row>
     <row r="19" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C19" s="4">
         <v>5</v>
       </c>
-      <c r="G19" s="4">
-        <v>5</v>
-      </c>
-      <c r="H19" s="4">
-        <v>5</v>
-      </c>
-      <c r="I19" s="4">
-        <v>5</v>
-      </c>
+      <c r="G19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="4">
         <v>5</v>
       </c>
@@ -1225,7 +1238,7 @@
       <c r="L19" s="4">
         <v>5</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="6">
         <v>5</v>
       </c>
       <c r="N19" s="8">
@@ -1234,27 +1247,31 @@
       <c r="O19" s="8">
         <v>5</v>
       </c>
-      <c r="P19" s="8"/>
+      <c r="P19" s="8">
+        <v>5</v>
+      </c>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
     </row>
     <row r="20" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C20" s="4">
         <v>5</v>
       </c>
-      <c r="G20" s="2">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2"/>
+      <c r="G20" s="4">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4">
+        <v>5</v>
+      </c>
       <c r="J20" s="4">
         <v>5</v>
       </c>
@@ -1264,28 +1281,26 @@
       <c r="L20" s="4">
         <v>5</v>
       </c>
-      <c r="M20" s="6">
-        <v>5</v>
-      </c>
-      <c r="N20" s="8">
-        <v>5</v>
-      </c>
-      <c r="O20" s="8">
-        <v>5</v>
-      </c>
-      <c r="P20" s="8">
-        <v>5</v>
-      </c>
+      <c r="M20" s="8">
+        <v>5</v>
+      </c>
+      <c r="N20" s="7">
+        <v>5</v>
+      </c>
+      <c r="O20" s="5">
+        <v>5</v>
+      </c>
+      <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
     </row>
     <row r="21" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C21" s="4">
         <v>5</v>
       </c>
@@ -1295,9 +1310,7 @@
       <c r="H21" s="4">
         <v>5</v>
       </c>
-      <c r="I21" s="4">
-        <v>5</v>
-      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="4">
         <v>5</v>
       </c>
@@ -1307,27 +1320,21 @@
       <c r="L21" s="4">
         <v>5</v>
       </c>
-      <c r="M21" s="8">
-        <v>5</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5</v>
-      </c>
-      <c r="O21" s="5">
-        <v>5</v>
-      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
     </row>
     <row r="22" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>5</v>
       </c>
       <c r="G22" s="4">
@@ -1336,92 +1343,98 @@
       <c r="H22" s="4">
         <v>5</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="4">
+        <v>5</v>
+      </c>
       <c r="J22" s="4">
         <v>5</v>
       </c>
       <c r="K22" s="4">
         <v>5</v>
       </c>
-      <c r="L22" s="4">
-        <v>5</v>
-      </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
+      <c r="L22" s="2">
+        <v>5</v>
+      </c>
+      <c r="M22" s="8">
+        <v>5</v>
+      </c>
+      <c r="N22" s="8">
+        <v>5</v>
+      </c>
+      <c r="O22" s="8">
+        <v>5</v>
+      </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
     <row r="23" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>5</v>
       </c>
       <c r="G23" s="4">
         <v>5</v>
       </c>
-      <c r="H23" s="4">
-        <v>5</v>
-      </c>
-      <c r="I23" s="4">
-        <v>5</v>
-      </c>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="4">
         <v>5</v>
       </c>
       <c r="K23" s="4">
         <v>5</v>
       </c>
-      <c r="L23" s="2">
-        <v>5</v>
-      </c>
-      <c r="M23" s="8">
-        <v>5</v>
-      </c>
-      <c r="N23" s="8">
-        <v>5</v>
-      </c>
-      <c r="O23" s="8">
-        <v>5</v>
-      </c>
+      <c r="L23" s="4">
+        <v>5</v>
+      </c>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
     <row r="24" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C24" s="4">
         <v>5</v>
       </c>
       <c r="G24" s="4">
         <v>5</v>
       </c>
-      <c r="H24" s="2">
-        <v>5</v>
-      </c>
-      <c r="I24" s="2"/>
+      <c r="H24" s="4">
+        <v>5</v>
+      </c>
+      <c r="I24" s="4">
+        <v>5</v>
+      </c>
       <c r="J24" s="4">
         <v>5</v>
       </c>
       <c r="K24" s="4">
         <v>5</v>
       </c>
-      <c r="L24" s="4">
-        <v>5</v>
-      </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="L24" s="2">
+        <v>5</v>
+      </c>
+      <c r="M24" s="6">
+        <v>5</v>
+      </c>
+      <c r="N24" s="6">
+        <v>5</v>
+      </c>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
@@ -1429,14 +1442,12 @@
     </row>
     <row r="25" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="4">
-        <v>5</v>
-      </c>
+      <c r="C25" s="2"/>
       <c r="G25" s="4">
         <v>5</v>
       </c>
@@ -1452,7 +1463,7 @@
       <c r="K25" s="4">
         <v>5</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="4">
         <v>5</v>
       </c>
       <c r="M25" s="6">
@@ -1461,118 +1472,89 @@
       <c r="N25" s="6">
         <v>5</v>
       </c>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
+      <c r="O25" s="6">
+        <v>5</v>
+      </c>
+      <c r="P25" s="6">
+        <v>35</v>
+      </c>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
     <row r="26" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C26" s="2"/>
-      <c r="G26" s="4">
-        <v>5</v>
-      </c>
-      <c r="H26" s="4">
-        <v>5</v>
-      </c>
-      <c r="I26" s="4">
-        <v>5</v>
-      </c>
-      <c r="J26" s="4">
-        <v>5</v>
-      </c>
-      <c r="K26" s="4">
-        <v>5</v>
-      </c>
-      <c r="L26" s="4">
-        <v>5</v>
-      </c>
-      <c r="M26" s="6">
-        <v>5</v>
-      </c>
-      <c r="N26" s="6">
-        <v>5</v>
-      </c>
-      <c r="O26" s="6">
-        <v>5</v>
-      </c>
-      <c r="P26" s="6">
-        <v>30</v>
-      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
     <row r="27" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="C27" s="4">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4">
+        <v>5</v>
+      </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="8"/>
+      <c r="J27" s="4">
+        <v>5</v>
+      </c>
+      <c r="K27" s="4">
+        <v>5</v>
+      </c>
+      <c r="L27" s="2">
+        <v>5</v>
+      </c>
+      <c r="M27" s="8">
+        <v>5</v>
+      </c>
       <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+      <c r="O27" s="8">
+        <v>5</v>
+      </c>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
     </row>
-    <row r="28" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="4">
-        <v>5</v>
-      </c>
-      <c r="G28" s="4">
-        <v>5</v>
-      </c>
-      <c r="H28" s="4">
-        <v>5</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="4">
-        <v>5</v>
-      </c>
-      <c r="K28" s="4">
-        <v>5</v>
-      </c>
-      <c r="L28" s="2">
-        <v>5</v>
-      </c>
-      <c r="M28" s="8">
-        <v>5</v>
-      </c>
+    <row r="28" spans="1:18" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="8">
-        <v>5</v>
-      </c>
+      <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
     </row>
-    <row r="29" spans="1:18" ht="13" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -1621,6 +1603,9 @@
       <c r="R34" s="8"/>
     </row>
     <row r="35" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -1639,22 +1624,8 @@
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
     </row>
-    <row r="37" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="1">
-    <mergeCell ref="C1:W1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F471CA31-8B75-42BB-913D-50E681C9371B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB5D47F-48DD-45E5-9680-A0397E5AF25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Абдуллаев Тагир</t>
   </si>
@@ -94,30 +94,6 @@
     <t>Шевченко Дмитрий</t>
   </si>
   <si>
-    <t>Лаб_8</t>
-  </si>
-  <si>
-    <t>Лаб_9</t>
-  </si>
-  <si>
-    <t>Лаб_10</t>
-  </si>
-  <si>
-    <t>Лаб_11</t>
-  </si>
-  <si>
-    <t>Лаб_12</t>
-  </si>
-  <si>
-    <t>Лаб_13</t>
-  </si>
-  <si>
-    <t>Лаб_14</t>
-  </si>
-  <si>
-    <t>Лаб_15-21</t>
-  </si>
-  <si>
     <t>Т_1</t>
   </si>
   <si>
@@ -134,6 +110,33 @@
   </si>
   <si>
     <t>Л_7</t>
+  </si>
+  <si>
+    <t>Л_8</t>
+  </si>
+  <si>
+    <t>Л_9</t>
+  </si>
+  <si>
+    <t>Л_10</t>
+  </si>
+  <si>
+    <t>Л_11</t>
+  </si>
+  <si>
+    <t>Л_12</t>
+  </si>
+  <si>
+    <t>Л_13</t>
+  </si>
+  <si>
+    <t>Л_14</t>
+  </si>
+  <si>
+    <t>Л_15-21</t>
+  </si>
+  <si>
+    <t>Л_25</t>
   </si>
 </sst>
 </file>
@@ -556,10 +559,10 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -567,52 +570,57 @@
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="41.6328125" customWidth="1"/>
     <col min="3" max="6" width="3" customWidth="1"/>
-    <col min="7" max="9" width="5.1796875" customWidth="1"/>
+    <col min="7" max="15" width="3.36328125" customWidth="1"/>
+    <col min="16" max="16" width="4.36328125" customWidth="1"/>
+    <col min="17" max="17" width="3.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:18" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>31</v>
+      <c r="Q2" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -860,7 +868,9 @@
       <c r="P9" s="6">
         <v>35</v>
       </c>
-      <c r="Q9" s="8"/>
+      <c r="Q9" s="8">
+        <v>5</v>
+      </c>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1447,7 +1457,18 @@
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
       <c r="G25" s="4">
         <v>5</v>
       </c>
@@ -1478,7 +1499,9 @@
       <c r="P25" s="6">
         <v>35</v>
       </c>
-      <c r="Q25" s="8"/>
+      <c r="Q25" s="8">
+        <v>5</v>
+      </c>
       <c r="R25" s="8"/>
     </row>
     <row r="26" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB5D47F-48DD-45E5-9680-A0397E5AF25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88FDB01-2811-45B7-AF30-E84379F67CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,7 +562,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -883,6 +883,12 @@
       <c r="C10" s="4">
         <v>5</v>
       </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
       <c r="F10">
         <v>5</v>
       </c>
@@ -1010,6 +1016,15 @@
       <c r="C13" s="4">
         <v>5</v>
       </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
       <c r="G13" s="4">
         <v>5</v>
       </c>
@@ -1040,7 +1055,9 @@
       <c r="P13" s="8">
         <v>35</v>
       </c>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="8">
+        <v>5</v>
+      </c>
       <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1232,6 +1249,12 @@
       <c r="C19" s="4">
         <v>5</v>
       </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
       <c r="G19" s="2">
         <v>5</v>
       </c>
@@ -1258,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="P19" s="8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88FDB01-2811-45B7-AF30-E84379F67CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324FEC0F-BB42-45DF-9053-9C589CA7C41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,10 +559,10 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1430,9 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+      <c r="P23" s="8">
+        <v>15</v>
+      </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
@@ -1581,7 +1583,9 @@
       <c r="O27" s="8">
         <v>5</v>
       </c>
-      <c r="P27" s="8"/>
+      <c r="P27" s="8">
+        <v>15</v>
+      </c>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
     </row>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-220\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324FEC0F-BB42-45DF-9053-9C589CA7C41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D899F1-CC48-4632-898D-81D489331AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,7 +562,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
+      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -920,7 +920,9 @@
       <c r="P10" s="8">
         <v>10</v>
       </c>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="8">
+        <v>5</v>
+      </c>
       <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1283,7 +1285,9 @@
       <c r="P19" s="8">
         <v>20</v>
       </c>
-      <c r="Q19" s="8"/>
+      <c r="Q19" s="8">
+        <v>5</v>
+      </c>
       <c r="R19" s="8"/>
     </row>
     <row r="20" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D899F1-CC48-4632-898D-81D489331AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E697186-AF34-4B89-956B-0333D4B96010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,7 +562,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -974,6 +974,12 @@
       <c r="C12" s="4">
         <v>5</v>
       </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
       <c r="F12">
         <v>5</v>
       </c>
@@ -1005,7 +1011,9 @@
       <c r="P12" s="8">
         <v>5</v>
       </c>
-      <c r="Q12" s="8"/>
+      <c r="Q12" s="8">
+        <v>5</v>
+      </c>
       <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1357,10 +1365,16 @@
       <c r="L21" s="4">
         <v>5</v>
       </c>
-      <c r="M21" s="8"/>
+      <c r="M21" s="8">
+        <v>5</v>
+      </c>
       <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="O21" s="8">
+        <v>5</v>
+      </c>
+      <c r="P21" s="8">
+        <v>15</v>
+      </c>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
     </row>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E697186-AF34-4B89-956B-0333D4B96010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C26CDF-5BF7-4296-9313-8E3B5D1B9510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,10 +559,10 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -935,6 +935,9 @@
       <c r="C11" s="4">
         <v>5</v>
       </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
       <c r="G11" s="4">
         <v>5</v>
       </c>
@@ -1196,13 +1199,21 @@
         <v>5</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="J17" s="2">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2">
+        <v>5</v>
+      </c>
+      <c r="L17" s="2">
+        <v>5</v>
+      </c>
       <c r="M17" s="8">
         <v>5</v>
       </c>
-      <c r="N17" s="8"/>
+      <c r="N17" s="8">
+        <v>5</v>
+      </c>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
@@ -1218,6 +1229,15 @@
       <c r="C18" s="4">
         <v>5</v>
       </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
       <c r="G18" s="4">
         <v>5</v>
       </c>
@@ -1245,7 +1265,9 @@
       <c r="O18" s="8">
         <v>5</v>
       </c>
-      <c r="P18" s="8"/>
+      <c r="P18" s="8">
+        <v>5</v>
+      </c>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
     </row>
@@ -1308,6 +1330,15 @@
       <c r="C20" s="4">
         <v>5</v>
       </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
       <c r="G20" s="4">
         <v>5</v>
       </c>
@@ -1335,8 +1366,12 @@
       <c r="O20" s="5">
         <v>5</v>
       </c>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="P20" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>5</v>
+      </c>
       <c r="R20" s="8"/>
     </row>
     <row r="21" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1375,7 +1410,9 @@
       <c r="P21" s="8">
         <v>15</v>
       </c>
-      <c r="Q21" s="8"/>
+      <c r="Q21" s="8">
+        <v>5</v>
+      </c>
       <c r="R21" s="8"/>
     </row>
     <row r="22" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1464,6 +1501,15 @@
       <c r="C24" s="4">
         <v>5</v>
       </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
       <c r="G24" s="4">
         <v>5</v>
       </c>
@@ -1488,8 +1534,12 @@
       <c r="N24" s="6">
         <v>5</v>
       </c>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
+      <c r="O24" s="8">
+        <v>5</v>
+      </c>
+      <c r="P24" s="8">
+        <v>5</v>
+      </c>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C26CDF-5BF7-4296-9313-8E3B5D1B9510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B535312D-82D7-4737-9A51-2C8199DFC8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -242,16 +242,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -558,11 +562,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -648,32 +652,32 @@
       <c r="H4" s="4">
         <v>5</v>
       </c>
-      <c r="I4" s="2">
-        <v>5</v>
-      </c>
-      <c r="J4" s="2">
-        <v>5</v>
-      </c>
-      <c r="K4" s="2">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2">
-        <v>5</v>
-      </c>
-      <c r="M4" s="8">
-        <v>5</v>
-      </c>
-      <c r="N4" s="8">
-        <v>5</v>
-      </c>
-      <c r="O4" s="8">
-        <v>5</v>
-      </c>
-      <c r="P4" s="8">
+      <c r="I4" s="4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4">
+        <v>5</v>
+      </c>
+      <c r="M4" s="7">
+        <v>5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7">
+        <v>5</v>
+      </c>
+      <c r="P4" s="6">
         <v>15</v>
       </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -683,34 +687,34 @@
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="G5" s="2">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4">
         <v>5</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2">
-        <v>5</v>
-      </c>
-      <c r="M5" s="8">
-        <v>5</v>
-      </c>
-      <c r="N5" s="8">
-        <v>5</v>
-      </c>
-      <c r="O5" s="8">
-        <v>5</v>
-      </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="J5" s="4">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
+        <v>5</v>
+      </c>
+      <c r="M5" s="7">
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>5</v>
+      </c>
+      <c r="O5" s="7">
+        <v>5</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -728,28 +732,28 @@
       <c r="H6" s="4">
         <v>5</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <v>5</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="2">
-        <v>5</v>
-      </c>
-      <c r="L6" s="2">
-        <v>5</v>
-      </c>
-      <c r="M6" s="8">
-        <v>5</v>
-      </c>
-      <c r="N6" s="8">
-        <v>5</v>
-      </c>
-      <c r="O6" s="8">
-        <v>5</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="K6" s="4">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>5</v>
+      </c>
+      <c r="M6" s="7">
+        <v>5</v>
+      </c>
+      <c r="N6" s="7">
+        <v>5</v>
+      </c>
+      <c r="O6" s="7">
+        <v>5</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -759,30 +763,30 @@
         <v>3</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>5</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2">
-        <v>5</v>
-      </c>
-      <c r="L7" s="2">
-        <v>5</v>
-      </c>
-      <c r="M7" s="8">
-        <v>5</v>
-      </c>
-      <c r="N7" s="8">
-        <v>5</v>
-      </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
+      <c r="J7" s="4">
+        <v>5</v>
+      </c>
+      <c r="K7" s="4">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>5</v>
+      </c>
+      <c r="M7" s="7">
+        <v>5</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -794,30 +798,30 @@
       <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>5</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2">
-        <v>5</v>
-      </c>
-      <c r="L8" s="2">
-        <v>5</v>
-      </c>
-      <c r="M8" s="8">
-        <v>5</v>
-      </c>
-      <c r="N8" s="8">
-        <v>5</v>
-      </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
+      <c r="J8" s="4">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4">
+        <v>5</v>
+      </c>
+      <c r="M8" s="7">
+        <v>5</v>
+      </c>
+      <c r="N8" s="7">
+        <v>5</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -856,22 +860,22 @@
       <c r="L9" s="4">
         <v>5</v>
       </c>
-      <c r="M9" s="6">
-        <v>5</v>
-      </c>
-      <c r="N9" s="6">
-        <v>5</v>
-      </c>
-      <c r="O9" s="6">
-        <v>5</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="M9" s="8">
+        <v>5</v>
+      </c>
+      <c r="N9" s="8">
+        <v>5</v>
+      </c>
+      <c r="O9" s="8">
+        <v>5</v>
+      </c>
+      <c r="P9" s="5">
         <v>35</v>
       </c>
-      <c r="Q9" s="8">
-        <v>5</v>
-      </c>
-      <c r="R9" s="8"/>
+      <c r="Q9" s="6">
+        <v>5</v>
+      </c>
+      <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -895,7 +899,7 @@
       <c r="G10" s="4">
         <v>5</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>5</v>
       </c>
       <c r="I10" s="2"/>
@@ -908,22 +912,22 @@
       <c r="L10" s="4">
         <v>5</v>
       </c>
-      <c r="M10" s="6">
-        <v>5</v>
-      </c>
-      <c r="N10" s="8">
-        <v>5</v>
-      </c>
-      <c r="O10" s="8">
-        <v>5</v>
-      </c>
-      <c r="P10" s="8">
+      <c r="M10" s="8">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <v>5</v>
+      </c>
+      <c r="O10" s="7">
+        <v>5</v>
+      </c>
+      <c r="P10" s="6">
         <v>10</v>
       </c>
-      <c r="Q10" s="8">
-        <v>5</v>
-      </c>
-      <c r="R10" s="8"/>
+      <c r="Q10" s="6">
+        <v>5</v>
+      </c>
+      <c r="R10" s="6"/>
     </row>
     <row r="11" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -944,7 +948,7 @@
       <c r="H11" s="4">
         <v>5</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="4">
         <v>5</v>
       </c>
       <c r="J11" s="4">
@@ -953,19 +957,19 @@
       <c r="K11" s="4">
         <v>5</v>
       </c>
-      <c r="L11" s="2">
-        <v>5</v>
-      </c>
-      <c r="M11" s="8">
-        <v>5</v>
-      </c>
-      <c r="N11" s="8">
-        <v>5</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
+      <c r="L11" s="4">
+        <v>5</v>
+      </c>
+      <c r="M11" s="7">
+        <v>5</v>
+      </c>
+      <c r="N11" s="7">
+        <v>5</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -986,10 +990,10 @@
       <c r="F12">
         <v>5</v>
       </c>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
         <v>5</v>
       </c>
       <c r="I12" s="2"/>
@@ -1002,22 +1006,22 @@
       <c r="L12" s="4">
         <v>5</v>
       </c>
-      <c r="M12" s="8">
-        <v>5</v>
-      </c>
-      <c r="N12" s="8">
-        <v>5</v>
-      </c>
-      <c r="O12" s="8">
-        <v>5</v>
-      </c>
-      <c r="P12" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>5</v>
-      </c>
-      <c r="R12" s="8"/>
+      <c r="M12" s="7">
+        <v>5</v>
+      </c>
+      <c r="N12" s="7">
+        <v>5</v>
+      </c>
+      <c r="O12" s="7">
+        <v>5</v>
+      </c>
+      <c r="P12" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>5</v>
+      </c>
+      <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1056,22 +1060,22 @@
       <c r="L13" s="4">
         <v>5</v>
       </c>
-      <c r="M13" s="6">
-        <v>5</v>
-      </c>
-      <c r="N13" s="6">
-        <v>5</v>
-      </c>
-      <c r="O13" s="6">
-        <v>5</v>
-      </c>
-      <c r="P13" s="8">
+      <c r="M13" s="8">
+        <v>5</v>
+      </c>
+      <c r="N13" s="8">
+        <v>5</v>
+      </c>
+      <c r="O13" s="8">
+        <v>5</v>
+      </c>
+      <c r="P13" s="6">
         <v>35</v>
       </c>
-      <c r="Q13" s="8">
-        <v>5</v>
-      </c>
-      <c r="R13" s="8"/>
+      <c r="Q13" s="6">
+        <v>5</v>
+      </c>
+      <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1097,18 +1101,18 @@
       <c r="L14" s="4">
         <v>5</v>
       </c>
-      <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="8">
-        <v>5</v>
-      </c>
-      <c r="O14" s="5">
-        <v>5</v>
-      </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
+      <c r="M14" s="9">
+        <v>5</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5</v>
+      </c>
+      <c r="O14" s="10">
+        <v>5</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1132,7 +1136,7 @@
       <c r="H15" s="4">
         <v>5</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="4">
         <v>5</v>
       </c>
       <c r="J15" s="4">
@@ -1141,19 +1145,19 @@
       <c r="K15" s="4">
         <v>5</v>
       </c>
-      <c r="L15" s="2">
-        <v>5</v>
-      </c>
-      <c r="M15" s="8">
-        <v>5</v>
-      </c>
-      <c r="N15" s="8">
-        <v>5</v>
-      </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
+      <c r="L15" s="4">
+        <v>5</v>
+      </c>
+      <c r="M15" s="7">
+        <v>5</v>
+      </c>
+      <c r="N15" s="7">
+        <v>5</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1175,14 +1179,14 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="8">
-        <v>5</v>
-      </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
     </row>
     <row r="17" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1199,25 +1203,25 @@
         <v>5</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2">
-        <v>5</v>
-      </c>
-      <c r="K17" s="2">
-        <v>5</v>
-      </c>
-      <c r="L17" s="2">
-        <v>5</v>
-      </c>
-      <c r="M17" s="8">
-        <v>5</v>
-      </c>
-      <c r="N17" s="8">
-        <v>5</v>
-      </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
+      <c r="J17" s="4">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4">
+        <v>5</v>
+      </c>
+      <c r="M17" s="7">
+        <v>5</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1256,20 +1260,20 @@
       <c r="L18" s="4">
         <v>5</v>
       </c>
-      <c r="M18" s="8">
-        <v>5</v>
-      </c>
-      <c r="N18" s="8">
-        <v>5</v>
-      </c>
-      <c r="O18" s="8">
-        <v>5</v>
-      </c>
-      <c r="P18" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
+      <c r="M18" s="7">
+        <v>5</v>
+      </c>
+      <c r="N18" s="7">
+        <v>5</v>
+      </c>
+      <c r="O18" s="7">
+        <v>5</v>
+      </c>
+      <c r="P18" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1287,10 +1291,10 @@
       <c r="E19">
         <v>5</v>
       </c>
-      <c r="G19" s="2">
-        <v>5</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4">
         <v>5</v>
       </c>
       <c r="I19" s="2"/>
@@ -1303,22 +1307,22 @@
       <c r="L19" s="4">
         <v>5</v>
       </c>
-      <c r="M19" s="6">
-        <v>5</v>
-      </c>
-      <c r="N19" s="8">
-        <v>5</v>
-      </c>
-      <c r="O19" s="8">
-        <v>5</v>
-      </c>
-      <c r="P19" s="8">
+      <c r="M19" s="8">
+        <v>5</v>
+      </c>
+      <c r="N19" s="7">
+        <v>5</v>
+      </c>
+      <c r="O19" s="7">
+        <v>5</v>
+      </c>
+      <c r="P19" s="6">
         <v>20</v>
       </c>
-      <c r="Q19" s="8">
-        <v>5</v>
-      </c>
-      <c r="R19" s="8"/>
+      <c r="Q19" s="6">
+        <v>5</v>
+      </c>
+      <c r="R19" s="6"/>
     </row>
     <row r="20" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1357,22 +1361,22 @@
       <c r="L20" s="4">
         <v>5</v>
       </c>
-      <c r="M20" s="8">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5</v>
-      </c>
-      <c r="O20" s="5">
-        <v>5</v>
-      </c>
-      <c r="P20" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>5</v>
-      </c>
-      <c r="R20" s="8"/>
+      <c r="M20" s="7">
+        <v>5</v>
+      </c>
+      <c r="N20" s="9">
+        <v>5</v>
+      </c>
+      <c r="O20" s="10">
+        <v>5</v>
+      </c>
+      <c r="P20" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>5</v>
+      </c>
+      <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1400,20 +1404,20 @@
       <c r="L21" s="4">
         <v>5</v>
       </c>
-      <c r="M21" s="8">
-        <v>5</v>
-      </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8">
-        <v>5</v>
-      </c>
-      <c r="P21" s="8">
+      <c r="M21" s="7">
+        <v>5</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7">
+        <v>5</v>
+      </c>
+      <c r="P21" s="6">
         <v>15</v>
       </c>
-      <c r="Q21" s="8">
-        <v>5</v>
-      </c>
-      <c r="R21" s="8"/>
+      <c r="Q21" s="6">
+        <v>5</v>
+      </c>
+      <c r="R21" s="6"/>
     </row>
     <row r="22" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1440,21 +1444,21 @@
       <c r="K22" s="4">
         <v>5</v>
       </c>
-      <c r="L22" s="2">
-        <v>5</v>
-      </c>
-      <c r="M22" s="8">
-        <v>5</v>
-      </c>
-      <c r="N22" s="8">
-        <v>5</v>
-      </c>
-      <c r="O22" s="8">
-        <v>5</v>
-      </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
+      <c r="L22" s="4">
+        <v>5</v>
+      </c>
+      <c r="M22" s="7">
+        <v>5</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5</v>
+      </c>
+      <c r="O22" s="7">
+        <v>5</v>
+      </c>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1469,7 +1473,7 @@
       <c r="G23" s="4">
         <v>5</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="4">
         <v>5</v>
       </c>
       <c r="I23" s="2"/>
@@ -1482,14 +1486,14 @@
       <c r="L23" s="4">
         <v>5</v>
       </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8">
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6">
         <v>15</v>
       </c>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
     </row>
     <row r="24" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1525,23 +1529,23 @@
       <c r="K24" s="4">
         <v>5</v>
       </c>
-      <c r="L24" s="2">
-        <v>5</v>
-      </c>
-      <c r="M24" s="6">
-        <v>5</v>
-      </c>
-      <c r="N24" s="6">
-        <v>5</v>
-      </c>
-      <c r="O24" s="8">
-        <v>5</v>
-      </c>
-      <c r="P24" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
+      <c r="L24" s="4">
+        <v>5</v>
+      </c>
+      <c r="M24" s="8">
+        <v>5</v>
+      </c>
+      <c r="N24" s="8">
+        <v>5</v>
+      </c>
+      <c r="O24" s="7">
+        <v>5</v>
+      </c>
+      <c r="P24" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
     </row>
     <row r="25" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1580,22 +1584,22 @@
       <c r="L25" s="4">
         <v>5</v>
       </c>
-      <c r="M25" s="6">
-        <v>5</v>
-      </c>
-      <c r="N25" s="6">
-        <v>5</v>
-      </c>
-      <c r="O25" s="6">
-        <v>5</v>
-      </c>
-      <c r="P25" s="6">
+      <c r="M25" s="8">
+        <v>5</v>
+      </c>
+      <c r="N25" s="8">
+        <v>5</v>
+      </c>
+      <c r="O25" s="8">
+        <v>5</v>
+      </c>
+      <c r="P25" s="5">
         <v>35</v>
       </c>
-      <c r="Q25" s="8">
-        <v>5</v>
-      </c>
-      <c r="R25" s="8"/>
+      <c r="Q25" s="6">
+        <v>5</v>
+      </c>
+      <c r="R25" s="6"/>
     </row>
     <row r="26" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1611,12 +1615,12 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1641,21 +1645,21 @@
       <c r="K27" s="4">
         <v>5</v>
       </c>
-      <c r="L27" s="2">
-        <v>5</v>
-      </c>
-      <c r="M27" s="8">
-        <v>5</v>
-      </c>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8">
-        <v>5</v>
-      </c>
-      <c r="P27" s="8">
+      <c r="L27" s="4">
+        <v>5</v>
+      </c>
+      <c r="M27" s="7">
+        <v>5</v>
+      </c>
+      <c r="N27" s="6"/>
+      <c r="O27" s="7">
+        <v>5</v>
+      </c>
+      <c r="P27" s="6">
         <v>15</v>
       </c>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
     </row>
     <row r="28" spans="1:18" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
@@ -1665,82 +1669,82 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
     </row>
     <row r="33" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
     </row>
     <row r="34" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
     </row>
     <row r="35" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
     </row>
     <row r="36" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B535312D-82D7-4737-9A51-2C8199DFC8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34062243-EB44-4B3E-9775-732594BACE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -240,9 +240,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -563,10 +560,10 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
+      <selection pane="bottomRight" activeCell="F25" activeCellId="5" sqref="F9:F13 F15 F18 F20 F24 F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -664,20 +661,20 @@
       <c r="L4" s="4">
         <v>5</v>
       </c>
-      <c r="M4" s="7">
-        <v>5</v>
-      </c>
-      <c r="N4" s="7">
-        <v>5</v>
-      </c>
-      <c r="O4" s="7">
+      <c r="M4" s="6">
+        <v>5</v>
+      </c>
+      <c r="N4" s="6">
+        <v>5</v>
+      </c>
+      <c r="O4" s="6">
         <v>5</v>
       </c>
       <c r="P4" s="6">
         <v>15</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -703,18 +700,18 @@
       <c r="L5" s="4">
         <v>5</v>
       </c>
-      <c r="M5" s="7">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5</v>
-      </c>
-      <c r="O5" s="7">
-        <v>5</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
+      <c r="M5" s="6">
+        <v>5</v>
+      </c>
+      <c r="N5" s="6">
+        <v>5</v>
+      </c>
+      <c r="O5" s="6">
+        <v>5</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -742,18 +739,18 @@
       <c r="L6" s="4">
         <v>5</v>
       </c>
-      <c r="M6" s="7">
-        <v>5</v>
-      </c>
-      <c r="N6" s="7">
-        <v>5</v>
-      </c>
-      <c r="O6" s="7">
-        <v>5</v>
-      </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="M6" s="6">
+        <v>5</v>
+      </c>
+      <c r="N6" s="6">
+        <v>5</v>
+      </c>
+      <c r="O6" s="6">
+        <v>5</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -777,16 +774,16 @@
       <c r="L7" s="4">
         <v>5</v>
       </c>
-      <c r="M7" s="7">
-        <v>5</v>
-      </c>
-      <c r="N7" s="7">
-        <v>5</v>
-      </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="M7" s="6">
+        <v>5</v>
+      </c>
+      <c r="N7" s="6">
+        <v>5</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -812,16 +809,16 @@
       <c r="L8" s="4">
         <v>5</v>
       </c>
-      <c r="M8" s="7">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7">
-        <v>5</v>
-      </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="M8" s="6">
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
+        <v>5</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -833,13 +830,13 @@
       <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6">
         <v>5</v>
       </c>
       <c r="G9" s="4">
@@ -860,22 +857,22 @@
       <c r="L9" s="4">
         <v>5</v>
       </c>
-      <c r="M9" s="8">
-        <v>5</v>
-      </c>
-      <c r="N9" s="8">
-        <v>5</v>
-      </c>
-      <c r="O9" s="8">
-        <v>5</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="M9" s="7">
+        <v>5</v>
+      </c>
+      <c r="N9" s="7">
+        <v>5</v>
+      </c>
+      <c r="O9" s="7">
+        <v>5</v>
+      </c>
+      <c r="P9" s="7">
         <v>35</v>
       </c>
       <c r="Q9" s="6">
         <v>5</v>
       </c>
-      <c r="R9" s="6"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -887,13 +884,13 @@
       <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6">
         <v>5</v>
       </c>
       <c r="G10" s="4">
@@ -912,13 +909,13 @@
       <c r="L10" s="4">
         <v>5</v>
       </c>
-      <c r="M10" s="8">
-        <v>5</v>
-      </c>
-      <c r="N10" s="7">
-        <v>5</v>
-      </c>
-      <c r="O10" s="7">
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+      <c r="N10" s="6">
+        <v>5</v>
+      </c>
+      <c r="O10" s="6">
         <v>5</v>
       </c>
       <c r="P10" s="6">
@@ -927,7 +924,7 @@
       <c r="Q10" s="6">
         <v>5</v>
       </c>
-      <c r="R10" s="6"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -939,7 +936,7 @@
       <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>5</v>
       </c>
       <c r="G11" s="4">
@@ -960,16 +957,16 @@
       <c r="L11" s="4">
         <v>5</v>
       </c>
-      <c r="M11" s="7">
-        <v>5</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5</v>
-      </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="M11" s="6">
+        <v>5</v>
+      </c>
+      <c r="N11" s="6">
+        <v>5</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -981,13 +978,13 @@
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="6">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6">
         <v>5</v>
       </c>
       <c r="G12" s="4">
@@ -1006,13 +1003,13 @@
       <c r="L12" s="4">
         <v>5</v>
       </c>
-      <c r="M12" s="7">
-        <v>5</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5</v>
-      </c>
-      <c r="O12" s="7">
+      <c r="M12" s="6">
+        <v>5</v>
+      </c>
+      <c r="N12" s="6">
+        <v>5</v>
+      </c>
+      <c r="O12" s="6">
         <v>5</v>
       </c>
       <c r="P12" s="6">
@@ -1021,7 +1018,7 @@
       <c r="Q12" s="6">
         <v>5</v>
       </c>
-      <c r="R12" s="6"/>
+      <c r="R12" s="5"/>
     </row>
     <row r="13" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1033,13 +1030,13 @@
       <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6">
         <v>5</v>
       </c>
       <c r="G13" s="4">
@@ -1060,13 +1057,13 @@
       <c r="L13" s="4">
         <v>5</v>
       </c>
-      <c r="M13" s="8">
-        <v>5</v>
-      </c>
-      <c r="N13" s="8">
-        <v>5</v>
-      </c>
-      <c r="O13" s="8">
+      <c r="M13" s="7">
+        <v>5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>5</v>
+      </c>
+      <c r="O13" s="7">
         <v>5</v>
       </c>
       <c r="P13" s="6">
@@ -1075,7 +1072,7 @@
       <c r="Q13" s="6">
         <v>5</v>
       </c>
-      <c r="R13" s="6"/>
+      <c r="R13" s="5"/>
     </row>
     <row r="14" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1101,18 +1098,18 @@
       <c r="L14" s="4">
         <v>5</v>
       </c>
-      <c r="M14" s="9">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5</v>
-      </c>
-      <c r="O14" s="10">
-        <v>5</v>
-      </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="M14" s="8">
+        <v>5</v>
+      </c>
+      <c r="N14" s="6">
+        <v>5</v>
+      </c>
+      <c r="O14" s="9">
+        <v>5</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1124,10 +1121,10 @@
       <c r="C15" s="4">
         <v>5</v>
       </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="F15">
+      <c r="D15" s="6">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6">
         <v>5</v>
       </c>
       <c r="G15" s="4">
@@ -1148,16 +1145,16 @@
       <c r="L15" s="4">
         <v>5</v>
       </c>
-      <c r="M15" s="7">
-        <v>5</v>
-      </c>
-      <c r="N15" s="7">
-        <v>5</v>
-      </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
+      <c r="M15" s="6">
+        <v>5</v>
+      </c>
+      <c r="N15" s="6">
+        <v>5</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1179,14 +1176,14 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7">
-        <v>5</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="M16" s="6">
+        <v>5</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1212,16 +1209,16 @@
       <c r="L17" s="4">
         <v>5</v>
       </c>
-      <c r="M17" s="7">
-        <v>5</v>
-      </c>
-      <c r="N17" s="7">
-        <v>5</v>
-      </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="M17" s="6">
+        <v>5</v>
+      </c>
+      <c r="N17" s="6">
+        <v>5</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
     </row>
     <row r="18" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1233,13 +1230,13 @@
       <c r="C18" s="4">
         <v>5</v>
       </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="F18">
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6">
         <v>5</v>
       </c>
       <c r="G18" s="4">
@@ -1260,20 +1257,20 @@
       <c r="L18" s="4">
         <v>5</v>
       </c>
-      <c r="M18" s="7">
-        <v>5</v>
-      </c>
-      <c r="N18" s="7">
-        <v>5</v>
-      </c>
-      <c r="O18" s="7">
+      <c r="M18" s="6">
+        <v>5</v>
+      </c>
+      <c r="N18" s="6">
+        <v>5</v>
+      </c>
+      <c r="O18" s="6">
         <v>5</v>
       </c>
       <c r="P18" s="6">
         <v>5</v>
       </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
     </row>
     <row r="19" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1285,10 +1282,10 @@
       <c r="C19" s="4">
         <v>5</v>
       </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="6">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6">
         <v>5</v>
       </c>
       <c r="G19" s="4">
@@ -1307,13 +1304,13 @@
       <c r="L19" s="4">
         <v>5</v>
       </c>
-      <c r="M19" s="8">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5</v>
-      </c>
-      <c r="O19" s="7">
+      <c r="M19" s="7">
+        <v>5</v>
+      </c>
+      <c r="N19" s="6">
+        <v>5</v>
+      </c>
+      <c r="O19" s="6">
         <v>5</v>
       </c>
       <c r="P19" s="6">
@@ -1322,7 +1319,7 @@
       <c r="Q19" s="6">
         <v>5</v>
       </c>
-      <c r="R19" s="6"/>
+      <c r="R19" s="5"/>
     </row>
     <row r="20" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1334,13 +1331,13 @@
       <c r="C20" s="4">
         <v>5</v>
       </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20">
+      <c r="D20" s="6">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6">
         <v>5</v>
       </c>
       <c r="G20" s="4">
@@ -1361,13 +1358,13 @@
       <c r="L20" s="4">
         <v>5</v>
       </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
-      <c r="N20" s="9">
-        <v>5</v>
-      </c>
-      <c r="O20" s="10">
+      <c r="M20" s="6">
+        <v>5</v>
+      </c>
+      <c r="N20" s="8">
+        <v>5</v>
+      </c>
+      <c r="O20" s="9">
         <v>5</v>
       </c>
       <c r="P20" s="6">
@@ -1376,7 +1373,7 @@
       <c r="Q20" s="6">
         <v>5</v>
       </c>
-      <c r="R20" s="6"/>
+      <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1404,11 +1401,11 @@
       <c r="L21" s="4">
         <v>5</v>
       </c>
-      <c r="M21" s="7">
-        <v>5</v>
-      </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="7">
+      <c r="M21" s="6">
+        <v>5</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="6">
         <v>5</v>
       </c>
       <c r="P21" s="6">
@@ -1417,7 +1414,7 @@
       <c r="Q21" s="6">
         <v>5</v>
       </c>
-      <c r="R21" s="6"/>
+      <c r="R21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1426,7 +1423,7 @@
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>5</v>
       </c>
       <c r="G22" s="4">
@@ -1447,18 +1444,18 @@
       <c r="L22" s="4">
         <v>5</v>
       </c>
-      <c r="M22" s="7">
-        <v>5</v>
-      </c>
-      <c r="N22" s="7">
-        <v>5</v>
-      </c>
-      <c r="O22" s="7">
-        <v>5</v>
-      </c>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
+      <c r="M22" s="6">
+        <v>5</v>
+      </c>
+      <c r="N22" s="6">
+        <v>5</v>
+      </c>
+      <c r="O22" s="6">
+        <v>5</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1486,14 +1483,14 @@
       <c r="L23" s="4">
         <v>5</v>
       </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
       <c r="P23" s="6">
         <v>15</v>
       </c>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1505,13 +1502,13 @@
       <c r="C24" s="4">
         <v>5</v>
       </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-      <c r="F24">
+      <c r="D24" s="6">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6">
         <v>5</v>
       </c>
       <c r="G24" s="4">
@@ -1532,20 +1529,20 @@
       <c r="L24" s="4">
         <v>5</v>
       </c>
-      <c r="M24" s="8">
-        <v>5</v>
-      </c>
-      <c r="N24" s="8">
-        <v>5</v>
-      </c>
-      <c r="O24" s="7">
+      <c r="M24" s="7">
+        <v>5</v>
+      </c>
+      <c r="N24" s="7">
+        <v>5</v>
+      </c>
+      <c r="O24" s="6">
         <v>5</v>
       </c>
       <c r="P24" s="6">
         <v>5</v>
       </c>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
     </row>
     <row r="25" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1554,16 +1551,16 @@
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="2">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25">
+      <c r="C25" s="4">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6">
+        <v>5</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5</v>
+      </c>
+      <c r="F25" s="6">
         <v>5</v>
       </c>
       <c r="G25" s="4">
@@ -1584,22 +1581,22 @@
       <c r="L25" s="4">
         <v>5</v>
       </c>
-      <c r="M25" s="8">
-        <v>5</v>
-      </c>
-      <c r="N25" s="8">
-        <v>5</v>
-      </c>
-      <c r="O25" s="8">
-        <v>5</v>
-      </c>
-      <c r="P25" s="5">
+      <c r="M25" s="7">
+        <v>5</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5</v>
+      </c>
+      <c r="O25" s="7">
+        <v>5</v>
+      </c>
+      <c r="P25" s="7">
         <v>35</v>
       </c>
       <c r="Q25" s="6">
         <v>5</v>
       </c>
-      <c r="R25" s="6"/>
+      <c r="R25" s="5"/>
     </row>
     <row r="26" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1615,12 +1612,12 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
     </row>
     <row r="27" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1648,18 +1645,18 @@
       <c r="L27" s="4">
         <v>5</v>
       </c>
-      <c r="M27" s="7">
-        <v>5</v>
-      </c>
-      <c r="N27" s="6"/>
-      <c r="O27" s="7">
+      <c r="M27" s="6">
+        <v>5</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="O27" s="6">
         <v>5</v>
       </c>
       <c r="P27" s="6">
         <v>15</v>
       </c>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
@@ -1669,82 +1666,82 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
     </row>
     <row r="33" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
     </row>
     <row r="34" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
     </row>
     <row r="35" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
     </row>
     <row r="36" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34062243-EB44-4B3E-9775-732594BACE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8C370D-F0B3-4B02-BCAE-6D5A64BA3513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,19 @@
     <sheet name="Safonova N. N." sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -557,13 +570,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F25" activeCellId="5" sqref="F9:F13 F15 F18 F20 F24 F25"/>
+      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -576,8 +589,8 @@
     <col min="17" max="17" width="3.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:18" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:21" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
@@ -624,7 +637,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -633,7 +646,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -675,8 +688,15 @@
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S4">
+        <f t="shared" ref="S4:S14" si="0">SUM(C4:Q4)</f>
+        <v>65</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -712,8 +732,15 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -751,8 +778,15 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -784,8 +818,15 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -819,8 +860,15 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -873,8 +921,15 @@
         <v>5</v>
       </c>
       <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -925,8 +980,15 @@
         <v>5</v>
       </c>
       <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -967,8 +1029,15 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1019,8 +1088,15 @@
         <v>5</v>
       </c>
       <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1073,8 +1149,15 @@
         <v>5</v>
       </c>
       <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1110,8 +1193,15 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1155,8 +1245,15 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S15">
+        <f>SUM(C15:Q15)</f>
+        <v>55</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1184,8 +1281,15 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S16">
+        <f t="shared" ref="S16:S27" si="1">SUM(C16:Q16)</f>
+        <v>20</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1219,8 +1323,15 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1271,8 +1382,15 @@
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="U18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1320,8 +1438,15 @@
         <v>5</v>
       </c>
       <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="U19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1374,8 +1499,15 @@
         <v>5</v>
       </c>
       <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="U20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1415,8 +1547,15 @@
         <v>5</v>
       </c>
       <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S21">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="U21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1456,8 +1595,15 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1491,8 +1637,15 @@
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S23">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="U23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1543,8 +1696,15 @@
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="U24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1597,8 +1757,15 @@
         <v>5</v>
       </c>
       <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="U25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1618,8 +1785,15 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1657,8 +1831,15 @@
       </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="1:18" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="U27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1673,7 +1854,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -1681,7 +1862,7 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -1689,7 +1870,7 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
@@ -1697,7 +1878,7 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -1745,6 +1926,30 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="S4:S27">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:U27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8C370D-F0B3-4B02-BCAE-6D5A64BA3513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72120AED-209A-418F-9CE2-94A0608ED584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,7 +576,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -836,6 +836,15 @@
       <c r="C8" s="4">
         <v>5</v>
       </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
       <c r="G8" s="4">
         <v>5</v>
       </c>
@@ -858,11 +867,13 @@
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="5">
+        <v>5</v>
+      </c>
       <c r="R8" s="5"/>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -998,6 +1009,12 @@
       <c r="C11" s="4">
         <v>5</v>
       </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
       <c r="F11" s="6">
         <v>5</v>
       </c>
@@ -1025,13 +1042,17 @@
       <c r="N11" s="6">
         <v>5</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="O11" s="5">
+        <v>5</v>
+      </c>
+      <c r="P11" s="5">
+        <v>5</v>
+      </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="U11">
         <v>4</v>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72120AED-209A-418F-9CE2-94A0608ED584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A950B47-49B1-4A2D-80D1-683B6B089A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,7 +576,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -793,7 +793,18 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
       <c r="G7" s="4">
         <v>5</v>
       </c>
@@ -814,13 +825,17 @@
       <c r="N7" s="6">
         <v>5</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="5">
+        <v>5</v>
+      </c>
       <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="5">
+        <v>5</v>
+      </c>
       <c r="R7" s="5"/>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U7">
         <v>3</v>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A950B47-49B1-4A2D-80D1-683B6B089A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0F3627-4AC4-4828-B91F-282BDF595F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,7 +576,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/3ПКС-220/3ПКС-220_Сети.xlsx
+++ b/3ПКС-220/3ПКС-220_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-220\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\3ПКС-220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0F3627-4AC4-4828-B91F-282BDF595F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFA00EE-B6A7-42EA-A32C-F86A4A4FE242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,7 +576,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -793,16 +793,16 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6">
         <v>5</v>
       </c>
       <c r="G7" s="4">
@@ -825,11 +825,11 @@
       <c r="N7" s="6">
         <v>5</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="6">
         <v>5</v>
       </c>
       <c r="P7" s="5"/>
-      <c r="Q7" s="5">
+      <c r="Q7" s="6">
         <v>5</v>
       </c>
       <c r="R7" s="5"/>
@@ -851,13 +851,13 @@
       <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6">
         <v>5</v>
       </c>
       <c r="G8" s="4">
@@ -882,7 +882,7 @@
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5">
+      <c r="Q8" s="6">
         <v>5</v>
       </c>
       <c r="R8" s="5"/>
@@ -1024,10 +1024,10 @@
       <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
         <v>5</v>
       </c>
       <c r="F11" s="6">
@@ -1057,10 +1057,10 @@
       <c r="N11" s="6">
         <v>5</v>
       </c>
-      <c r="O11" s="5">
-        <v>5</v>
-      </c>
-      <c r="P11" s="5">
+      <c r="O11" s="6">
+        <v>5</v>
+      </c>
+      <c r="P11" s="6">
         <v>5</v>
       </c>
       <c r="Q11" s="5"/>
